--- a/5. Master_thesis/Datasets/External_indicators_extended.xlsx
+++ b/5. Master_thesis/Datasets/External_indicators_extended.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Projects\5. Master_thesis\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B581AC83-2691-435A-A2EB-41A0FD6BDB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9EB50B-2F0E-43CC-829A-0643B85CBA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7ED15961-ADE2-49EC-882E-38480D6CF21A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7ED15961-ADE2-49EC-882E-38480D6CF21A}"/>
   </bookViews>
   <sheets>
     <sheet name="FIN" sheetId="1" r:id="rId1"/>
@@ -76,15 +76,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,11 +113,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,6 +153,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85326619-52BC-4D8F-B624-8F14A5423EF4}">
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,8 +695,8 @@
       <c r="D2" s="2">
         <v>3.28</v>
       </c>
-      <c r="E2" s="2">
-        <v>203.413006919747</v>
+      <c r="E2" s="8">
+        <v>20178</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,8 +712,8 @@
       <c r="D3" s="2">
         <v>3.44</v>
       </c>
-      <c r="E3" s="2">
-        <v>128.08424999310799</v>
+      <c r="E3" s="9">
+        <v>12846</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,8 +729,8 @@
       <c r="D4" s="2">
         <v>3.62</v>
       </c>
-      <c r="E4" s="2">
-        <v>151.605877650043</v>
+      <c r="E4" s="8">
+        <v>15165</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -725,8 +746,8 @@
       <c r="D5" s="2">
         <v>3.88</v>
       </c>
-      <c r="E5" s="2">
-        <v>135.08670360874501</v>
+      <c r="E5" s="9">
+        <v>13474</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -742,8 +763,8 @@
       <c r="D6" s="2">
         <v>3.94</v>
       </c>
-      <c r="E6" s="2">
-        <v>166.978193146417</v>
+      <c r="E6" s="8">
+        <v>16516</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,8 +780,8 @@
       <c r="D7" s="2">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E7" s="2">
-        <v>166.492983762027</v>
+      <c r="E7" s="9">
+        <v>16434</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,8 +797,8 @@
       <c r="D8" s="2">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E8" s="2">
-        <v>117.586083312657</v>
+      <c r="E8" s="8">
+        <v>11667</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,8 +814,8 @@
       <c r="D9" s="2">
         <v>3.94</v>
       </c>
-      <c r="E9" s="2">
-        <v>122.052215146252</v>
+      <c r="E9" s="9">
+        <v>12309</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,8 +831,8 @@
       <c r="D10" s="2">
         <v>3.8</v>
       </c>
-      <c r="E10" s="2">
-        <v>129.34138339812</v>
+      <c r="E10" s="8">
+        <v>12934</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,8 +848,8 @@
       <c r="D11" s="2">
         <v>3.84</v>
       </c>
-      <c r="E11" s="2">
-        <v>122.64769939073101</v>
+      <c r="E11" s="9">
+        <v>12435</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,8 +865,8 @@
       <c r="D12" s="2">
         <v>3.75</v>
       </c>
-      <c r="E12" s="2">
-        <v>99.589226146169295</v>
+      <c r="E12" s="8">
+        <v>10273</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,8 +882,8 @@
       <c r="D13" s="2">
         <v>3.82</v>
       </c>
-      <c r="E13" s="2">
-        <v>63.8270890193808</v>
+      <c r="E13" s="9">
+        <v>6768</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,8 +899,8 @@
       <c r="D14" s="2">
         <v>4.05</v>
       </c>
-      <c r="E14" s="2">
-        <v>186.28732114796099</v>
+      <c r="E14" s="8">
+        <v>18852</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,8 +916,8 @@
       <c r="D15" s="2">
         <v>4.08</v>
       </c>
-      <c r="E15" s="2">
-        <v>116.604637057867</v>
+      <c r="E15" s="9">
+        <v>11852</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,8 +933,8 @@
       <c r="D16" s="2">
         <v>3.98</v>
       </c>
-      <c r="E16" s="2">
-        <v>140.43503432304999</v>
+      <c r="E16" s="8">
+        <v>14387</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,8 +950,8 @@
       <c r="D17" s="2">
         <v>4.2</v>
       </c>
-      <c r="E17" s="2">
-        <v>135.58294047914401</v>
+      <c r="E17" s="9">
+        <v>13761</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,8 +967,8 @@
       <c r="D18" s="2">
         <v>4.33</v>
       </c>
-      <c r="E18" s="2">
-        <v>144.79089129655699</v>
+      <c r="E18" s="8">
+        <v>14922</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,8 +984,8 @@
       <c r="D19" s="2">
         <v>4.62</v>
       </c>
-      <c r="E19" s="2">
-        <v>129.903785184573</v>
+      <c r="E19" s="9">
+        <v>13276</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,8 +1001,8 @@
       <c r="D20" s="2">
         <v>4.59</v>
       </c>
-      <c r="E20" s="2">
-        <v>115.071816502633</v>
+      <c r="E20" s="8">
+        <v>11555</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,8 +1018,8 @@
       <c r="D21" s="2">
         <v>4.3899999999999997</v>
       </c>
-      <c r="E21" s="2">
-        <v>121.57803324787</v>
+      <c r="E21" s="9">
+        <v>12343</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,8 +1035,8 @@
       <c r="D22" s="2">
         <v>4.34</v>
       </c>
-      <c r="E22" s="2">
-        <v>108.30094009318201</v>
+      <c r="E22" s="8">
+        <v>11169</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,8 +1052,8 @@
       <c r="D23" s="2">
         <v>4.38</v>
       </c>
-      <c r="E23" s="2">
-        <v>122.17351749235</v>
+      <c r="E23" s="9">
+        <v>12610</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,8 +1069,8 @@
       <c r="D24" s="2">
         <v>4.22</v>
       </c>
-      <c r="E24" s="2">
-        <v>41.386154991315898</v>
+      <c r="E24" s="8">
+        <v>4846</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,8 +1086,8 @@
       <c r="D25" s="2">
         <v>4.34</v>
       </c>
-      <c r="E25" s="2">
-        <v>23.124638160615302</v>
+      <c r="E25" s="9">
+        <v>2999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,8 +1103,8 @@
       <c r="D26" s="2">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E26" s="2">
-        <v>237.576158575249</v>
+      <c r="E26" s="8">
+        <v>23532</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1099,8 +1120,8 @@
       <c r="D27" s="2">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E27" s="2">
-        <v>132.53935434069399</v>
+      <c r="E27" s="9">
+        <v>13440</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,8 +1137,8 @@
       <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="2">
-        <v>138.692691533648</v>
+      <c r="E28" s="8">
+        <v>13995</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,8 +1154,8 @@
       <c r="D29" s="2">
         <v>4.22</v>
       </c>
-      <c r="E29" s="2">
-        <v>171.05836296970199</v>
+      <c r="E29" s="9">
+        <v>17053</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,8 +1171,8 @@
       <c r="D30" s="2">
         <v>4.47</v>
       </c>
-      <c r="E30" s="2">
-        <v>156.987290822375</v>
+      <c r="E30" s="8">
+        <v>15775</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,8 +1188,8 @@
       <c r="D31" s="2">
         <v>4.78</v>
       </c>
-      <c r="E31" s="2">
-        <v>134.03909243790099</v>
+      <c r="E31" s="9">
+        <v>13442</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,8 +1205,8 @@
       <c r="D32" s="2">
         <v>4.7699999999999996</v>
       </c>
-      <c r="E32" s="2">
-        <v>123.419623411353</v>
+      <c r="E32" s="8">
+        <v>12225</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1201,8 +1222,8 @@
       <c r="D33" s="2">
         <v>4.47</v>
       </c>
-      <c r="E33" s="2">
-        <v>104.30899015796901</v>
+      <c r="E33" s="9">
+        <v>10668</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,8 +1239,8 @@
       <c r="D34" s="2">
         <v>4.43</v>
       </c>
-      <c r="E34" s="2">
-        <v>108.852314393626</v>
+      <c r="E34" s="8">
+        <v>11082</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,8 +1256,8 @@
       <c r="D35" s="2">
         <v>4.33</v>
       </c>
-      <c r="E35" s="2">
-        <v>112.083367794227</v>
+      <c r="E35" s="9">
+        <v>11357</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1252,8 +1273,8 @@
       <c r="D36" s="2">
         <v>4.09</v>
       </c>
-      <c r="E36" s="2">
-        <v>71.149339729275198</v>
+      <c r="E36" s="8">
+        <v>7395</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1269,8 +1290,8 @@
       <c r="D37" s="2">
         <v>3.72</v>
       </c>
-      <c r="E37" s="2">
-        <v>49.491357207840501</v>
+      <c r="E37" s="9">
+        <v>5397</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1286,8 +1307,8 @@
       <c r="D38" s="2">
         <v>3.87</v>
       </c>
-      <c r="E38" s="2">
-        <v>127.54390317867301</v>
+      <c r="E38" s="8">
+        <v>12842</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,8 +1324,8 @@
       <c r="D39" s="2">
         <v>3.93</v>
       </c>
-      <c r="E39" s="2">
-        <v>79.243514459791001</v>
+      <c r="E39" s="9">
+        <v>8011</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1320,8 +1341,8 @@
       <c r="D40" s="2">
         <v>3.81</v>
       </c>
-      <c r="E40" s="2">
-        <v>118.44622722134901</v>
+      <c r="E40" s="8">
+        <v>12286</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,8 +1358,8 @@
       <c r="D41" s="2">
         <v>3.78</v>
       </c>
-      <c r="E41" s="2">
-        <v>82.099633336090207</v>
+      <c r="E41" s="9">
+        <v>7886</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1354,8 +1375,8 @@
       <c r="D42" s="2">
         <v>3.91</v>
       </c>
-      <c r="E42" s="2">
-        <v>79.805916246243797</v>
+      <c r="E42" s="8">
+        <v>7801</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1371,8 +1392,8 @@
       <c r="D43" s="2">
         <v>3.98</v>
       </c>
-      <c r="E43" s="2">
-        <v>87.260496788244694</v>
+      <c r="E43" s="9">
+        <v>8502</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,8 +1409,8 @@
       <c r="D44" s="2">
         <v>3.77</v>
       </c>
-      <c r="E44" s="2">
-        <v>75.747801394977003</v>
+      <c r="E44" s="8">
+        <v>7339</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,8 +1426,8 @@
       <c r="D45" s="2">
         <v>3.63</v>
       </c>
-      <c r="E45" s="2">
-        <v>67.466159402310197</v>
+      <c r="E45" s="9">
+        <v>6637</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,8 +1443,8 @@
       <c r="D46" s="2">
         <v>3.62</v>
       </c>
-      <c r="E46" s="2">
-        <v>83.092107076889107</v>
+      <c r="E46" s="8">
+        <v>8235</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,8 +1460,8 @@
       <c r="D47" s="2">
         <v>3.57</v>
       </c>
-      <c r="E47" s="2">
-        <v>84.095608303697006</v>
+      <c r="E47" s="9">
+        <v>8298</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,8 +1477,8 @@
       <c r="D48" s="2">
         <v>3.53</v>
       </c>
-      <c r="E48" s="2">
-        <v>68.524798059162507</v>
+      <c r="E48" s="8">
+        <v>6809</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1473,8 +1494,8 @@
       <c r="D49" s="2">
         <v>3.46</v>
       </c>
-      <c r="E49" s="2">
-        <v>45.488379786618097</v>
+      <c r="E49" s="9">
+        <v>4653</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1490,8 +1511,8 @@
       <c r="D50" s="2">
         <v>3.49</v>
       </c>
-      <c r="E50" s="2">
-        <v>136.55335924792499</v>
+      <c r="E50" s="8">
+        <v>13258</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,8 +1528,8 @@
       <c r="D51" s="2">
         <v>3.38</v>
       </c>
-      <c r="E51" s="2">
-        <v>83.742728751412898</v>
+      <c r="E51" s="9">
+        <v>8247</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1524,8 +1545,8 @@
       <c r="D52" s="2">
         <v>3.26</v>
       </c>
-      <c r="E52" s="2">
-        <v>100.515534970915</v>
+      <c r="E52" s="8">
+        <v>9950</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,8 +1562,8 @@
       <c r="D53" s="2">
         <v>3.36</v>
       </c>
-      <c r="E53" s="2">
-        <v>114.796129352411</v>
+      <c r="E53" s="9">
+        <v>11221</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1558,8 +1579,8 @@
       <c r="D54" s="2">
         <v>3.03</v>
       </c>
-      <c r="E54" s="2">
-        <v>118.082320183056</v>
+      <c r="E54" s="8">
+        <v>11793</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,8 +1596,8 @@
       <c r="D55" s="2">
         <v>2.92</v>
       </c>
-      <c r="E55" s="2">
-        <v>134.93231880462</v>
+      <c r="E55" s="9">
+        <v>13308</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1592,8 +1613,8 @@
       <c r="D56" s="2">
         <v>2.85</v>
       </c>
-      <c r="E56" s="2">
-        <v>80.666060154936204</v>
+      <c r="E56" s="8">
+        <v>7931</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1609,8 +1630,8 @@
       <c r="D57" s="2">
         <v>2.62</v>
       </c>
-      <c r="E57" s="2">
-        <v>94.880489620378796</v>
+      <c r="E57" s="9">
+        <v>9475</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1626,8 +1647,8 @@
       <c r="D58" s="2">
         <v>2.58</v>
       </c>
-      <c r="E58" s="2">
-        <v>106.85633942601901</v>
+      <c r="E58" s="8">
+        <v>10751</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1643,8 +1664,8 @@
       <c r="D59" s="2">
         <v>2.63</v>
       </c>
-      <c r="E59" s="2">
-        <v>105.27940892674999</v>
+      <c r="E59" s="9">
+        <v>10518</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1660,8 +1681,8 @@
       <c r="D60" s="2">
         <v>2.82</v>
       </c>
-      <c r="E60" s="2">
-        <v>90.337165384721402</v>
+      <c r="E60" s="8">
+        <v>9271</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1677,8 +1698,8 @@
       <c r="D61" s="2">
         <v>3.19</v>
       </c>
-      <c r="E61" s="2">
-        <v>68.315275824993805</v>
+      <c r="E61" s="9">
+        <v>7310</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,8 +1715,8 @@
       <c r="D62" s="2">
         <v>3.27</v>
       </c>
-      <c r="E62" s="2">
-        <v>152.046977090398</v>
+      <c r="E62" s="8">
+        <v>15007</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1711,8 +1732,8 @@
       <c r="D63" s="2">
         <v>3.41</v>
       </c>
-      <c r="E63" s="2">
-        <v>102.59972982659301</v>
+      <c r="E63" s="9">
+        <v>10279</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1728,8 +1749,8 @@
       <c r="D64" s="2">
         <v>3.45</v>
       </c>
-      <c r="E64" s="2">
-        <v>138.780911421719</v>
+      <c r="E64" s="8">
+        <v>13917</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1745,8 +1766,8 @@
       <c r="D65" s="2">
         <v>3.57</v>
       </c>
-      <c r="E65" s="2">
-        <v>125.77950541725301</v>
+      <c r="E65" s="9">
+        <v>12480</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,8 +1783,8 @@
       <c r="D66" s="2">
         <v>3.32</v>
       </c>
-      <c r="E66" s="2">
-        <v>143.79841755575799</v>
+      <c r="E66" s="8">
+        <v>14206</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1779,8 +1800,8 @@
       <c r="D67" s="2">
         <v>3.29</v>
       </c>
-      <c r="E67" s="2">
-        <v>123.89380530973401</v>
+      <c r="E67" s="9">
+        <v>12461</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1796,8 +1817,8 @@
       <c r="D68" s="2">
         <v>3.16</v>
       </c>
-      <c r="E68" s="2">
-        <v>95.012819452485303</v>
+      <c r="E68" s="8">
+        <v>9483</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1813,8 +1834,8 @@
       <c r="D69" s="2">
         <v>2.68</v>
       </c>
-      <c r="E69" s="2">
-        <v>110.53951975298401</v>
+      <c r="E69" s="9">
+        <v>11124</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1830,8 +1851,8 @@
       <c r="D70" s="2">
         <v>2.35</v>
       </c>
-      <c r="E70" s="2">
-        <v>111.498911035757</v>
+      <c r="E70" s="8">
+        <v>11300</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,8 +1868,8 @@
       <c r="D71" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="E71" s="2">
-        <v>111.046784109393</v>
+      <c r="E71" s="9">
+        <v>11261</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,8 +1885,8 @@
       <c r="D72" s="2">
         <v>2.54</v>
       </c>
-      <c r="E72" s="2">
-        <v>99.909023240426805</v>
+      <c r="E72" s="8">
+        <v>10408</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,8 +1902,8 @@
       <c r="D73" s="2">
         <v>2.52</v>
       </c>
-      <c r="E73" s="2">
-        <v>75.990406087172303</v>
+      <c r="E73" s="9">
+        <v>8640</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,8 +1919,8 @@
       <c r="D74" s="2">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E74" s="2">
-        <v>157.36222534667701</v>
+      <c r="E74" s="8">
+        <v>15526</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1915,8 +1936,8 @@
       <c r="D75" s="2">
         <v>2.34</v>
       </c>
-      <c r="E75" s="2">
-        <v>117.17806633032799</v>
+      <c r="E75" s="9">
+        <v>11863</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,8 +1953,8 @@
       <c r="D76" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E76" s="2">
-        <v>252.94847407162399</v>
+      <c r="E76" s="8">
+        <v>25619</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1949,8 +1970,8 @@
       <c r="D77" s="2">
         <v>2.15</v>
       </c>
-      <c r="E77" s="2">
-        <v>44.782620682050002</v>
+      <c r="E77" s="9">
+        <v>4289</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,8 +1987,8 @@
       <c r="D78" s="2">
         <v>1.82</v>
       </c>
-      <c r="E78" s="2">
-        <v>80.677087640945103</v>
+      <c r="E78" s="8">
+        <v>7942</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,8 +2004,8 @@
       <c r="D79" s="2">
         <v>1.76</v>
       </c>
-      <c r="E79" s="2">
-        <v>85.165274446558001</v>
+      <c r="E79" s="9">
+        <v>8356</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2000,8 +2021,8 @@
       <c r="D80" s="2">
         <v>1.55</v>
       </c>
-      <c r="E80" s="2">
-        <v>71.204477159319595</v>
+      <c r="E80" s="8">
+        <v>7097</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,8 +2038,8 @@
       <c r="D81" s="2">
         <v>1.54</v>
       </c>
-      <c r="E81" s="2">
-        <v>83.202381936977901</v>
+      <c r="E81" s="9">
+        <v>8438</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,8 +2055,8 @@
       <c r="D82" s="2">
         <v>1.82</v>
       </c>
-      <c r="E82" s="2">
-        <v>88.241943043034794</v>
+      <c r="E82" s="8">
+        <v>8814</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2051,8 +2072,8 @@
       <c r="D83" s="2">
         <v>1.78</v>
       </c>
-      <c r="E83" s="2">
-        <v>90.326137898712602</v>
+      <c r="E83" s="9">
+        <v>9040</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2068,8 +2089,8 @@
       <c r="D84" s="2">
         <v>1.67</v>
       </c>
-      <c r="E84" s="2">
-        <v>85.066027072478207</v>
+      <c r="E84" s="8">
+        <v>8518</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2085,8 +2106,8 @@
       <c r="D85" s="2">
         <v>1.59</v>
       </c>
-      <c r="E85" s="2">
-        <v>70.741322746946807</v>
+      <c r="E85" s="9">
+        <v>7140</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,8 +2123,8 @@
       <c r="D86" s="2">
         <v>1.74</v>
       </c>
-      <c r="E86" s="2">
-        <v>113.119951479062</v>
+      <c r="E86" s="8">
+        <v>11206</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,8 +2140,8 @@
       <c r="D87" s="2">
         <v>1.81</v>
       </c>
-      <c r="E87" s="2">
-        <v>87.017892096049394</v>
+      <c r="E87" s="9">
+        <v>8655</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,8 +2157,8 @@
       <c r="D88" s="2">
         <v>1.61</v>
       </c>
-      <c r="E88" s="2">
-        <v>104.750089598324</v>
+      <c r="E88" s="8">
+        <v>10320</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,8 +2174,8 @@
       <c r="D89" s="2">
         <v>1.51</v>
       </c>
-      <c r="E89" s="2">
-        <v>108.78614947757301</v>
+      <c r="E89" s="9">
+        <v>10727</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,8 +2191,8 @@
       <c r="D90" s="2">
         <v>1.6</v>
       </c>
-      <c r="E90" s="2">
-        <v>112.855291814848</v>
+      <c r="E90" s="8">
+        <v>11185</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,8 +2208,8 @@
       <c r="D91" s="2">
         <v>1.88</v>
       </c>
-      <c r="E91" s="2">
-        <v>97.152151738207493</v>
+      <c r="E91" s="9">
+        <v>9781</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,8 +2225,8 @@
       <c r="D92" s="2">
         <v>1.91</v>
       </c>
-      <c r="E92" s="2">
-        <v>93.259449177073904</v>
+      <c r="E92" s="8">
+        <v>9275</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,8 +2242,8 @@
       <c r="D93" s="2">
         <v>2.0699999999999998</v>
       </c>
-      <c r="E93" s="2">
-        <v>85.341714222700105</v>
+      <c r="E93" s="9">
+        <v>8521</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2238,8 +2259,8 @@
       <c r="D94" s="2">
         <v>2.19</v>
       </c>
-      <c r="E94" s="2">
-        <v>90.634907506961099</v>
+      <c r="E94" s="8">
+        <v>9202</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2255,8 +2276,8 @@
       <c r="D95" s="2">
         <v>2.04</v>
       </c>
-      <c r="E95" s="2">
-        <v>100.27293027872</v>
+      <c r="E95" s="9">
+        <v>9964</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,8 +2293,8 @@
       <c r="D96" s="2">
         <v>1.94</v>
       </c>
-      <c r="E96" s="2">
-        <v>82.298128084249996</v>
+      <c r="E96" s="8">
+        <v>8250</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,8 +2310,8 @@
       <c r="D97" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E97" s="2">
-        <v>65.359909574614704</v>
+      <c r="E97" s="9">
+        <v>6733</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,8 +2327,8 @@
       <c r="D98" s="2">
         <v>1.99</v>
       </c>
-      <c r="E98" s="2">
-        <v>140.01598985471301</v>
+      <c r="E98" s="8">
+        <v>13688</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2323,8 +2344,8 @@
       <c r="D99" s="2">
         <v>1.92</v>
       </c>
-      <c r="E99" s="2">
-        <v>90.204835552614895</v>
+      <c r="E99" s="9">
+        <v>9009</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,8 +2361,8 @@
       <c r="D100" s="2">
         <v>1.9</v>
       </c>
-      <c r="E100" s="2">
-        <v>106.150580321451</v>
+      <c r="E100" s="8">
+        <v>10482</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,8 +2378,8 @@
       <c r="D101" s="2">
         <v>1.84</v>
       </c>
-      <c r="E101" s="2">
-        <v>102.743087144708</v>
+      <c r="E101" s="9">
+        <v>10200</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2374,8 +2395,8 @@
       <c r="D102" s="2">
         <v>1.69</v>
       </c>
-      <c r="E102" s="2">
-        <v>111.53199349378301</v>
+      <c r="E102" s="8">
+        <v>10985</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2391,8 +2412,8 @@
       <c r="D103" s="2">
         <v>1.57</v>
       </c>
-      <c r="E103" s="2">
-        <v>101.552118655749</v>
+      <c r="E103" s="9">
+        <v>10141</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,8 +2429,8 @@
       <c r="D104" s="2">
         <v>1.36</v>
       </c>
-      <c r="E104" s="2">
-        <v>88.407355333167899</v>
+      <c r="E104" s="8">
+        <v>8723</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,8 +2446,8 @@
       <c r="D105" s="2">
         <v>1.18</v>
       </c>
-      <c r="E105" s="2">
-        <v>82.981832216800399</v>
+      <c r="E105" s="9">
+        <v>8415</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,8 +2463,8 @@
       <c r="D106" s="2">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E106" s="2">
-        <v>92.652937446585597</v>
+      <c r="E106" s="8">
+        <v>9326</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,8 +2480,8 @@
       <c r="D107" s="2">
         <v>1.01</v>
       </c>
-      <c r="E107" s="2">
-        <v>97.460921346456004</v>
+      <c r="E107" s="9">
+        <v>9803</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,8 +2497,8 @@
       <c r="D108" s="2">
         <v>0.9</v>
       </c>
-      <c r="E108" s="2">
-        <v>79.607421498083994</v>
+      <c r="E108" s="8">
+        <v>8040</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2493,8 +2514,8 @@
       <c r="D109" s="2">
         <v>0.89</v>
       </c>
-      <c r="E109" s="2">
-        <v>78.206930774956604</v>
+      <c r="E109" s="9">
+        <v>7961</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2510,8 +2531,8 @@
       <c r="D110" s="2">
         <v>0.62</v>
       </c>
-      <c r="E110" s="2">
-        <v>113.23022633914999</v>
+      <c r="E110" s="8">
+        <v>11216</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,8 +2548,8 @@
       <c r="D111" s="2">
         <v>0.48</v>
       </c>
-      <c r="E111" s="2">
-        <v>88.109613210928202</v>
+      <c r="E111" s="9">
+        <v>8900</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2544,8 +2565,8 @@
       <c r="D112" s="2">
         <v>0.39</v>
       </c>
-      <c r="E112" s="2">
-        <v>122.38303972651801</v>
+      <c r="E112" s="8">
+        <v>12160</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2561,8 +2582,8 @@
       <c r="D113" s="2">
         <v>0.27</v>
       </c>
-      <c r="E113" s="2">
-        <v>106.27188266754899</v>
+      <c r="E113" s="9">
+        <v>10590</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,8 +2599,8 @@
       <c r="D114" s="2">
         <v>0.71</v>
       </c>
-      <c r="E114" s="2">
-        <v>100.537589942933</v>
+      <c r="E114" s="8">
+        <v>10035</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,8 +2616,8 @@
       <c r="D115" s="2">
         <v>1.01</v>
       </c>
-      <c r="E115" s="2">
-        <v>99.026824359716599</v>
+      <c r="E115" s="9">
+        <v>9960</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2612,8 +2633,8 @@
       <c r="D116" s="2">
         <v>0.95</v>
       </c>
-      <c r="E116" s="2">
-        <v>96.192760455435206</v>
+      <c r="E116" s="8">
+        <v>9455</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2629,8 +2650,8 @@
       <c r="D117" s="2">
         <v>0.82</v>
       </c>
-      <c r="E117" s="2">
-        <v>92.652937446585597</v>
+      <c r="E117" s="9">
+        <v>9353</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2646,8 +2667,8 @@
       <c r="D118" s="2">
         <v>0.95</v>
       </c>
-      <c r="E118" s="2">
-        <v>93.899043365588696</v>
+      <c r="E118" s="8">
+        <v>9463</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2663,8 +2684,8 @@
       <c r="D119" s="2">
         <v>0.81</v>
       </c>
-      <c r="E119" s="2">
-        <v>101.08896424337701</v>
+      <c r="E119" s="9">
+        <v>10118</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2680,8 +2701,8 @@
       <c r="D120" s="2">
         <v>0.81</v>
       </c>
-      <c r="E120" s="2">
-        <v>99.214291621867503</v>
+      <c r="E120" s="8">
+        <v>9941</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2697,8 +2718,8 @@
       <c r="D121" s="2">
         <v>0.86</v>
       </c>
-      <c r="E121" s="2">
-        <v>87.392826620351201</v>
+      <c r="E121" s="9">
+        <v>8936</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2714,8 +2735,8 @@
       <c r="D122" s="2">
         <v>0.78</v>
       </c>
-      <c r="E122" s="2">
-        <v>130.05816998869699</v>
+      <c r="E122" s="8">
+        <v>12926</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,8 +2752,8 @@
       <c r="D123" s="2">
         <v>0.53</v>
       </c>
-      <c r="E123" s="2">
-        <v>106.59167976180601</v>
+      <c r="E123" s="9">
+        <v>10628</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,8 +2769,8 @@
       <c r="D124" s="2">
         <v>0.53</v>
       </c>
-      <c r="E124" s="2">
-        <v>128.51432194745399</v>
+      <c r="E124" s="8">
+        <v>12729</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,8 +2786,8 @@
       <c r="D125" s="2">
         <v>0.46</v>
       </c>
-      <c r="E125" s="2">
-        <v>122.27276486642999</v>
+      <c r="E125" s="9">
+        <v>12262</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2782,8 +2803,8 @@
       <c r="D126" s="2">
         <v>0.45</v>
       </c>
-      <c r="E126" s="2">
-        <v>116.042235271414</v>
+      <c r="E126" s="8">
+        <v>11583</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,8 +2820,8 @@
       <c r="D127" s="2">
         <v>0.33</v>
       </c>
-      <c r="E127" s="2">
-        <v>118.578557053456</v>
+      <c r="E127" s="9">
+        <v>11942</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,8 +2837,8 @@
       <c r="D128" s="2">
         <v>0.12</v>
       </c>
-      <c r="E128" s="2">
-        <v>92.024370744079604</v>
+      <c r="E128" s="8">
+        <v>9117</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,8 +2854,8 @@
       <c r="D129" s="2">
         <v>0.06</v>
       </c>
-      <c r="E129" s="2">
-        <v>101.463898767678</v>
+      <c r="E129" s="9">
+        <v>10504</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,8 +2871,8 @@
       <c r="D130" s="2">
         <v>0.08</v>
       </c>
-      <c r="E130" s="2">
-        <v>106.426267471673</v>
+      <c r="E130" s="8">
+        <v>10800</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2867,8 +2888,8 @@
       <c r="D131" s="2">
         <v>0.17</v>
       </c>
-      <c r="E131" s="2">
-        <v>101.07793675736799</v>
+      <c r="E131" s="9">
+        <v>10182</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,8 +2905,8 @@
       <c r="D132" s="2">
         <v>0.41</v>
       </c>
-      <c r="E132" s="2">
-        <v>99.335593967965195</v>
+      <c r="E132" s="8">
+        <v>10183</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2901,8 +2922,8 @@
       <c r="D133" s="2">
         <v>0.46</v>
       </c>
-      <c r="E133" s="2">
-        <v>89.8850384583574</v>
+      <c r="E133" s="9">
+        <v>9489</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,8 +2939,8 @@
       <c r="D134" s="2">
         <v>0.5</v>
       </c>
-      <c r="E134" s="2">
-        <v>140.53428169713001</v>
+      <c r="E134" s="8">
+        <v>14107</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,8 +2956,8 @@
       <c r="D135" s="2">
         <v>0.52</v>
       </c>
-      <c r="E135" s="2">
-        <v>101.099991729385</v>
+      <c r="E135" s="9">
+        <v>10306</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2952,8 +2973,8 @@
       <c r="D136" s="2">
         <v>0.51</v>
       </c>
-      <c r="E136" s="2">
-        <v>123.662228103548</v>
+      <c r="E136" s="8">
+        <v>12629</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2969,8 +2990,8 @@
       <c r="D137" s="2">
         <v>0.38</v>
       </c>
-      <c r="E137" s="2">
-        <v>103.647340997436</v>
+      <c r="E137" s="9">
+        <v>10559</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2986,8 +3007,8 @@
       <c r="D138" s="2">
         <v>0.49</v>
       </c>
-      <c r="E138" s="2">
-        <v>121.941940286163</v>
+      <c r="E138" s="8">
+        <v>12316</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3003,8 +3024,8 @@
       <c r="D139" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E139" s="2">
-        <v>119.84671794447701</v>
+      <c r="E139" s="9">
+        <v>12030</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,8 +3041,8 @@
       <c r="D140" s="2">
         <v>0.76</v>
       </c>
-      <c r="E140" s="2">
-        <v>97.648388608606993</v>
+      <c r="E140" s="8">
+        <v>9603</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3037,8 +3058,8 @@
       <c r="D141" s="2">
         <v>0.65</v>
       </c>
-      <c r="E141" s="2">
-        <v>106.65784467786</v>
+      <c r="E141" s="9">
+        <v>10817</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3054,8 +3075,8 @@
       <c r="D142" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E142" s="2">
-        <v>100.54861742894199</v>
+      <c r="E142" s="8">
+        <v>10446</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3071,8 +3092,8 @@
       <c r="D143" s="2">
         <v>0.59</v>
       </c>
-      <c r="E143" s="2">
-        <v>96.512557549692602</v>
+      <c r="E143" s="9">
+        <v>9754</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3088,8 +3109,8 @@
       <c r="D144" s="2">
         <v>0.52</v>
       </c>
-      <c r="E144" s="2">
-        <v>106.635789705842</v>
+      <c r="E144" s="8">
+        <v>11007</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3105,8 +3126,8 @@
       <c r="D145" s="2">
         <v>0.5</v>
       </c>
-      <c r="E145" s="2">
-        <v>88.980784605629495</v>
+      <c r="E145" s="9">
+        <v>9142</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3122,8 +3143,8 @@
       <c r="D146" s="2">
         <v>0.67</v>
       </c>
-      <c r="E146" s="2">
-        <v>149.79736994458699</v>
+      <c r="E146" s="8">
+        <v>14991</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3139,8 +3160,8 @@
       <c r="D147" s="2">
         <v>0.84</v>
       </c>
-      <c r="E147" s="2">
-        <v>100.460397540871</v>
+      <c r="E147" s="9">
+        <v>10189</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -3156,8 +3177,8 @@
       <c r="D148" s="2">
         <v>0.72</v>
       </c>
-      <c r="E148" s="2">
-        <v>129.275218482067</v>
+      <c r="E148" s="8">
+        <v>13104</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3173,8 +3194,8 @@
       <c r="D149" s="2">
         <v>0.69</v>
       </c>
-      <c r="E149" s="2">
-        <v>121.82063794006601</v>
+      <c r="E149" s="9">
+        <v>12322</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3190,8 +3211,8 @@
       <c r="D150" s="2">
         <v>0.7</v>
       </c>
-      <c r="E150" s="2">
-        <v>137.700217792849</v>
+      <c r="E150" s="8">
+        <v>13855</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3207,8 +3228,8 @@
       <c r="D151" s="2">
         <v>0.63</v>
       </c>
-      <c r="E151" s="2">
-        <v>128.59151434951599</v>
+      <c r="E151" s="9">
+        <v>12795</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3224,8 +3245,8 @@
       <c r="D152" s="2">
         <v>0.53</v>
       </c>
-      <c r="E152" s="2">
-        <v>105.67639842307</v>
+      <c r="E152" s="8">
+        <v>10325</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,8 +3262,8 @@
       <c r="D153" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E153" s="2">
-        <v>132.40702450858799</v>
+      <c r="E153" s="9">
+        <v>12979</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,8 +3279,8 @@
       <c r="D154" s="2">
         <v>0.66</v>
       </c>
-      <c r="E154" s="2">
-        <v>72.031538609985404</v>
+      <c r="E154" s="8">
+        <v>7663</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3275,8 +3296,8 @@
       <c r="D155" s="2">
         <v>0.73</v>
       </c>
-      <c r="E155" s="2">
-        <v>87.558238910484405</v>
+      <c r="E155" s="9">
+        <v>9167</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3292,8 +3313,8 @@
       <c r="D156" s="2">
         <v>0.66</v>
       </c>
-      <c r="E156" s="2">
-        <v>95.575221238938099</v>
+      <c r="E156" s="8">
+        <v>9860</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3309,8 +3330,8 @@
       <c r="D157" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E157" s="2">
-        <v>67.973423758718596</v>
+      <c r="E157" s="9">
+        <v>7233</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3326,8 +3347,8 @@
       <c r="D158" s="2">
         <v>0.49</v>
       </c>
-      <c r="E158" s="2">
-        <v>129.4406307722</v>
+      <c r="E158" s="8">
+        <v>13143</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3343,8 +3364,8 @@
       <c r="D159" s="2">
         <v>0.38</v>
       </c>
-      <c r="E159" s="2">
-        <v>89.157224381771599</v>
+      <c r="E159" s="9">
+        <v>9014</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3360,8 +3381,8 @@
       <c r="D160" s="2">
         <v>0.39</v>
       </c>
-      <c r="E160" s="2">
-        <v>102.32404267637099</v>
+      <c r="E160" s="8">
+        <v>10530</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3377,8 +3398,8 @@
       <c r="D161" s="2">
         <v>0.34</v>
       </c>
-      <c r="E161" s="2">
-        <v>107.495933614534</v>
+      <c r="E161" s="9">
+        <v>10911</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3394,8 +3415,8 @@
       <c r="D162" s="2">
         <v>0.25</v>
       </c>
-      <c r="E162" s="2">
-        <v>120.10035012268099</v>
+      <c r="E162" s="8">
+        <v>11934</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3411,8 +3432,8 @@
       <c r="D163" s="2">
         <v>0.05</v>
       </c>
-      <c r="E163" s="2">
-        <v>116.218675047556</v>
+      <c r="E163" s="9">
+        <v>11688</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3428,8 +3449,8 @@
       <c r="D164" s="2">
         <v>-0.09</v>
       </c>
-      <c r="E164" s="2">
-        <v>101.684448487856</v>
+      <c r="E164" s="8">
+        <v>9933</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3445,8 +3466,8 @@
       <c r="D165" s="2">
         <v>-0.35</v>
       </c>
-      <c r="E165" s="2">
-        <v>110.208695172718</v>
+      <c r="E165" s="9">
+        <v>11428</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3462,8 +3483,8 @@
       <c r="D166" s="2">
         <v>-0.3</v>
       </c>
-      <c r="E166" s="2">
-        <v>93.060954428914101</v>
+      <c r="E166" s="8">
+        <v>9309</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3479,8 +3500,8 @@
       <c r="D167" s="2">
         <v>-0.21</v>
       </c>
-      <c r="E167" s="2">
-        <v>103.338571389188</v>
+      <c r="E167" s="9">
+        <v>10379</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3496,8 +3517,8 @@
       <c r="D168" s="2">
         <v>-0.08</v>
       </c>
-      <c r="E168" s="2">
-        <v>95.751661015080103</v>
+      <c r="E168" s="8">
+        <v>9651</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3513,8 +3534,8 @@
       <c r="D169" s="2">
         <v>-0.03</v>
       </c>
-      <c r="E169" s="2">
-        <v>90.590797562925601</v>
+      <c r="E169" s="9">
+        <v>9302</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,8 +3551,8 @@
       <c r="D170" s="2">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E170" s="2">
-        <v>119.10787638188199</v>
+      <c r="E170" s="8">
+        <v>11961</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3547,8 +3568,8 @@
       <c r="D171" s="2">
         <v>-0.23</v>
       </c>
-      <c r="E171" s="2">
-        <v>91.208336779422694</v>
+      <c r="E171" s="9">
+        <v>9136</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3564,8 +3585,8 @@
       <c r="D172" s="2">
         <v>-0.12</v>
       </c>
-      <c r="E172" s="2">
-        <v>101.45287128167</v>
+      <c r="E172" s="8">
+        <v>10247</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,8 +3602,8 @@
       <c r="D173" s="2">
         <v>0.03</v>
       </c>
-      <c r="E173" s="2">
-        <v>65.955393819094098</v>
+      <c r="E173" s="9">
+        <v>6784</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3598,8 +3619,8 @@
       <c r="D174" s="2">
         <v>-0.12</v>
       </c>
-      <c r="E174" s="2">
-        <v>56.383535963388702</v>
+      <c r="E174" s="8">
+        <v>5828</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3615,8 +3636,8 @@
       <c r="D175" s="2">
         <v>-0.17</v>
       </c>
-      <c r="E175" s="2">
-        <v>88.506602707247794</v>
+      <c r="E175" s="9">
+        <v>8580</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3632,8 +3653,8 @@
       <c r="D176" s="2">
         <v>-0.21</v>
       </c>
-      <c r="E176" s="2">
-        <v>100.39423262481699</v>
+      <c r="E176" s="8">
+        <v>9598</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3649,8 +3670,8 @@
       <c r="D177" s="2">
         <v>-0.25</v>
       </c>
-      <c r="E177" s="2">
-        <v>93.601301243348999</v>
+      <c r="E177" s="9">
+        <v>9349</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3666,8 +3687,8 @@
       <c r="D178" s="2">
         <v>-0.3</v>
       </c>
-      <c r="E178" s="2">
-        <v>92.895542138780897</v>
+      <c r="E178" s="8">
+        <v>9438</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3683,8 +3704,8 @@
       <c r="D179" s="2">
         <v>-0.38</v>
       </c>
-      <c r="E179" s="2">
-        <v>82.728200038596199</v>
+      <c r="E179" s="9">
+        <v>8617</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3700,8 +3721,8 @@
       <c r="D180" s="2">
         <v>-0.4</v>
       </c>
-      <c r="E180" s="2">
-        <v>81.327709315468795</v>
+      <c r="E180" s="8">
+        <v>8369</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3717,8 +3738,8 @@
       <c r="D181" s="2">
         <v>-0.41</v>
       </c>
-      <c r="E181" s="2">
-        <v>89.686543710197697</v>
+      <c r="E181" s="9">
+        <v>9420</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,8 +3755,8 @@
       <c r="D182" s="2">
         <v>-0.37842100000000001</v>
       </c>
-      <c r="E182" s="2">
-        <v>103.393708819232</v>
+      <c r="E182" s="8">
+        <v>10572</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,8 +3772,8 @@
       <c r="D183" s="2">
         <v>-0.21767</v>
       </c>
-      <c r="E183" s="2">
-        <v>90.149698122570499</v>
+      <c r="E183" s="9">
+        <v>8961</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,8 +3789,8 @@
       <c r="D184" s="2">
         <v>-0.1238435</v>
       </c>
-      <c r="E184" s="2">
-        <v>115.00565158658</v>
+      <c r="E184" s="8">
+        <v>11633</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3785,8 +3806,8 @@
       <c r="D185" s="2">
         <v>-7.9200000000000007E-2</v>
       </c>
-      <c r="E185" s="2">
-        <v>97.538113748518199</v>
+      <c r="E185" s="9">
+        <v>9665</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3802,8 +3823,8 @@
       <c r="D186" s="2">
         <v>4.9090000000000002E-2</v>
       </c>
-      <c r="E186" s="2">
-        <v>109.888898078461</v>
+      <c r="E186" s="8">
+        <v>10754</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3819,8 +3840,8 @@
       <c r="D187" s="2">
         <v>-1.7666669999999999E-2</v>
       </c>
-      <c r="E187" s="2">
-        <v>109.679375844292</v>
+      <c r="E187" s="9">
+        <v>10859</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -3836,8 +3857,8 @@
       <c r="D188" s="2">
         <v>-9.562727E-2</v>
       </c>
-      <c r="E188" s="2">
-        <v>82.562787748462995</v>
+      <c r="E188" s="8">
+        <v>7905</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,8 +3874,8 @@
       <c r="D189" s="2">
         <v>-0.21505450000000001</v>
       </c>
-      <c r="E189" s="2">
-        <v>87.183304386182598</v>
+      <c r="E189" s="9">
+        <v>8609</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -3870,8 +3891,8 @@
       <c r="D190" s="2">
         <v>-8.3863640000000003E-2</v>
       </c>
-      <c r="E190" s="2">
-        <v>72.064621068012002</v>
+      <c r="E190" s="8">
+        <v>7462</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -3887,8 +3908,8 @@
       <c r="D191" s="2">
         <v>7.8884209999999996E-2</v>
       </c>
-      <c r="E191" s="2">
-        <v>72.924764976704395</v>
+      <c r="E191" s="9">
+        <v>7425</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -3904,8 +3925,8 @@
       <c r="D192" s="2">
         <v>4.3E-3</v>
       </c>
-      <c r="E192" s="2">
-        <v>73.641551567281397</v>
+      <c r="E192" s="8">
+        <v>7477</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,8 +3942,8 @@
       <c r="D193" s="2">
         <v>-6.1839999999999999E-2</v>
       </c>
-      <c r="E193" s="2">
-        <v>72.009483637967605</v>
+      <c r="E193" s="9">
+        <v>7406</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,8 +3959,8 @@
       <c r="D194" s="2">
         <v>0.17909</v>
       </c>
-      <c r="E194" s="2">
-        <v>86.940699693987298</v>
+      <c r="E194" s="8">
+        <v>8788</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -3955,8 +3976,8 @@
       <c r="D195" s="2">
         <v>0.51082000000000005</v>
       </c>
-      <c r="E195" s="2">
-        <v>69.528299285970306</v>
+      <c r="E195" s="9">
+        <v>7146</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -3972,8 +3993,8 @@
       <c r="D196" s="2">
         <v>0.71581740000000005</v>
       </c>
-      <c r="E196" s="2">
-        <v>83.180326964960202</v>
+      <c r="E196" s="8">
+        <v>8454</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -3989,8 +4010,8 @@
       <c r="D197" s="2">
         <v>1.177</v>
       </c>
-      <c r="E197" s="2">
-        <v>70.928790009097696</v>
+      <c r="E197" s="9">
+        <v>7084</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4006,8 +4027,8 @@
       <c r="D198" s="2">
         <v>1.451962</v>
       </c>
-      <c r="E198" s="2">
-        <v>87.580293882502104</v>
+      <c r="E198" s="8">
+        <v>8578</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4023,8 +4044,8 @@
       <c r="D199" s="2">
         <v>2.072276</v>
       </c>
-      <c r="E199" s="2">
-        <v>81.581341493672994</v>
+      <c r="E199" s="9">
+        <v>8095</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4040,8 +4061,8 @@
       <c r="D200" s="2">
         <v>1.713857</v>
       </c>
-      <c r="E200" s="2">
-        <v>60.684255506850803</v>
+      <c r="E200" s="8">
+        <v>5974</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4057,8 +4078,8 @@
       <c r="D201" s="2">
         <v>1.6249039999999999</v>
       </c>
-      <c r="E201" s="2">
-        <v>78.449535467151904</v>
+      <c r="E201" s="9">
+        <v>8055</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4074,8 +4095,8 @@
       <c r="D202" s="2">
         <v>2.420836</v>
       </c>
-      <c r="E202" s="2">
-        <v>74.997932346373304</v>
+      <c r="E202" s="8">
+        <v>7779</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4091,8 +4112,8 @@
       <c r="D203" s="2">
         <v>2.8944860000000001</v>
       </c>
-      <c r="E203" s="2">
-        <v>68.348358283020403</v>
+      <c r="E203" s="9">
+        <v>7026</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4108,8 +4129,8 @@
       <c r="D204" s="2">
         <v>2.6910820000000002</v>
       </c>
-      <c r="E204" s="2">
-        <v>70.487690568742593</v>
+      <c r="E204" s="8">
+        <v>7277</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4125,8 +4146,8 @@
       <c r="D205" s="2">
         <v>2.7067100000000002</v>
       </c>
-      <c r="E205" s="2">
-        <v>68.227055936922795</v>
+      <c r="E205" s="9">
+        <v>7204</v>
       </c>
     </row>
   </sheetData>
@@ -4137,10 +4158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B59FC59-6A0E-4A93-8703-9B229911EB79}">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+    <sheetView topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,8 +4203,8 @@
       <c r="D2" s="2">
         <v>3.3109999999999999</v>
       </c>
-      <c r="E2" s="2">
-        <v>65.640787410719497</v>
+      <c r="E2" s="8">
+        <v>17226</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4199,8 +4220,8 @@
       <c r="D3" s="2">
         <v>3.484</v>
       </c>
-      <c r="E3" s="2">
-        <v>61.924394634457897</v>
+      <c r="E3" s="9">
+        <v>16437</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4216,8 +4237,8 @@
       <c r="D4" s="2">
         <v>3.7040000000000002</v>
       </c>
-      <c r="E4" s="2">
-        <v>83.479472736774895</v>
+      <c r="E4" s="8">
+        <v>19476</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4233,8 +4254,8 @@
       <c r="D5" s="2">
         <v>3.9750000000000001</v>
       </c>
-      <c r="E5" s="2">
-        <v>77.672609023866201</v>
+      <c r="E5" s="9">
+        <v>18664</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4250,8 +4271,8 @@
       <c r="D6" s="2">
         <v>4.0220000000000002</v>
       </c>
-      <c r="E6" s="2">
-        <v>91.928459439056994</v>
+      <c r="E6" s="8">
+        <v>20710</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4267,8 +4288,8 @@
       <c r="D7" s="2">
         <v>4.0289999999999999</v>
       </c>
-      <c r="E7" s="2">
-        <v>99.245107717321901</v>
+      <c r="E7" s="9">
+        <v>20798</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4284,8 +4305,8 @@
       <c r="D8" s="2">
         <v>4.0629999999999997</v>
       </c>
-      <c r="E8" s="2">
-        <v>66.987979792114302</v>
+      <c r="E8" s="8">
+        <v>16967</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4301,8 +4322,8 @@
       <c r="D9" s="2">
         <v>3.9340000000000002</v>
       </c>
-      <c r="E9" s="2">
-        <v>70.117879333372002</v>
+      <c r="E9" s="9">
+        <v>17339</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4318,8 +4339,8 @@
       <c r="D10" s="2">
         <v>3.7919999999999998</v>
       </c>
-      <c r="E10" s="2">
-        <v>71.494106033331406</v>
+      <c r="E10" s="8">
+        <v>16737</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4335,8 +4356,8 @@
       <c r="D11" s="2">
         <v>3.8780000000000001</v>
       </c>
-      <c r="E11" s="2">
-        <v>72.214157133732101</v>
+      <c r="E11" s="9">
+        <v>18291</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4352,8 +4373,8 @@
       <c r="D12" s="2">
         <v>3.7749999999999999</v>
       </c>
-      <c r="E12" s="2">
-        <v>73.468439695720406</v>
+      <c r="E12" s="8">
+        <v>16827</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4369,8 +4390,8 @@
       <c r="D13" s="2">
         <v>3.7770000000000001</v>
       </c>
-      <c r="E13" s="2">
-        <v>75.872481272864505</v>
+      <c r="E13" s="9">
+        <v>17389</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4386,8 +4407,8 @@
       <c r="D14" s="2">
         <v>3.996</v>
       </c>
-      <c r="E14" s="2">
-        <v>67.847395621624798</v>
+      <c r="E14" s="8">
+        <v>16779</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4403,8 +4424,8 @@
       <c r="D15" s="2">
         <v>4.0540000000000003</v>
       </c>
-      <c r="E15" s="2">
-        <v>62.772196736542597</v>
+      <c r="E15" s="9">
+        <v>15370</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4420,8 +4441,8 @@
       <c r="D16" s="2">
         <v>3.9580000000000002</v>
       </c>
-      <c r="E16" s="2">
-        <v>83.868532605539698</v>
+      <c r="E16" s="8">
+        <v>20470</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4437,8 +4458,8 @@
       <c r="D17" s="2">
         <v>4.1820000000000004</v>
       </c>
-      <c r="E17" s="2">
-        <v>71.273445212240901</v>
+      <c r="E17" s="9">
+        <v>19289</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4454,8 +4475,8 @@
       <c r="D18" s="2">
         <v>4.3360000000000003</v>
       </c>
-      <c r="E18" s="2">
-        <v>83.282039370535998</v>
+      <c r="E18" s="8">
+        <v>18697</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4471,8 +4492,8 @@
       <c r="D19" s="2">
         <v>4.6449999999999996</v>
       </c>
-      <c r="E19" s="2">
-        <v>88.153998025666397</v>
+      <c r="E19" s="9">
+        <v>19363</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4488,8 +4509,8 @@
       <c r="D20" s="2">
         <v>4.5819999999999999</v>
       </c>
-      <c r="E20" s="2">
-        <v>78.009407119214899</v>
+      <c r="E20" s="8">
+        <v>16289</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4505,8 +4526,8 @@
       <c r="D21" s="2">
         <v>4.391</v>
       </c>
-      <c r="E21" s="2">
-        <v>77.620347250449996</v>
+      <c r="E21" s="9">
+        <v>16967</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4522,8 +4543,8 @@
       <c r="D22" s="2">
         <v>4.3570000000000002</v>
       </c>
-      <c r="E22" s="2">
-        <v>78.044248301492402</v>
+      <c r="E22" s="8">
+        <v>16901</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4539,8 +4560,8 @@
       <c r="D23" s="2">
         <v>4.3940000000000001</v>
       </c>
-      <c r="E23" s="2">
-        <v>84.228558155740103</v>
+      <c r="E23" s="9">
+        <v>18144</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4556,8 +4577,8 @@
       <c r="D24" s="2">
         <v>4.2080000000000002</v>
       </c>
-      <c r="E24" s="2">
-        <v>88.200452935369597</v>
+      <c r="E24" s="8">
+        <v>18980</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4573,8 +4594,8 @@
       <c r="D25" s="2">
         <v>4.3339999999999996</v>
       </c>
-      <c r="E25" s="2">
-        <v>80.204401602694404</v>
+      <c r="E25" s="9">
+        <v>18313</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4590,8 +4611,8 @@
       <c r="D26" s="2">
         <v>4.149</v>
       </c>
-      <c r="E26" s="2">
-        <v>83.572382556181395</v>
+      <c r="E26" s="8">
+        <v>17631</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4607,8 +4628,8 @@
       <c r="D27" s="2">
         <v>4.0819999999999999</v>
       </c>
-      <c r="E27" s="2">
-        <v>75.274374310434894</v>
+      <c r="E27" s="9">
+        <v>15947</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4624,8 +4645,8 @@
       <c r="D28" s="2">
         <v>4.0369999999999999</v>
       </c>
-      <c r="E28" s="2">
-        <v>73.334881830323397</v>
+      <c r="E28" s="8">
+        <v>14829</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4641,8 +4662,8 @@
       <c r="D29" s="2">
         <v>4.2850000000000001</v>
       </c>
-      <c r="E29" s="2">
-        <v>93.461471459264899</v>
+      <c r="E29" s="9">
+        <v>19739</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4658,8 +4679,8 @@
       <c r="D30" s="2">
         <v>4.415</v>
       </c>
-      <c r="E30" s="2">
-        <v>84.797630799605102</v>
+      <c r="E30" s="8">
+        <v>17706</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4675,8 +4696,8 @@
       <c r="D31" s="2">
         <v>4.8239999999999998</v>
       </c>
-      <c r="E31" s="2">
-        <v>89.280529585970598</v>
+      <c r="E31" s="9">
+        <v>18687</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4692,8 +4713,8 @@
       <c r="D32" s="2">
         <v>4.7770000000000001</v>
       </c>
-      <c r="E32" s="2">
-        <v>75.500841995238403</v>
+      <c r="E32" s="8">
+        <v>15456</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4709,8 +4730,8 @@
       <c r="D33" s="2">
         <v>4.4859999999999998</v>
       </c>
-      <c r="E33" s="2">
-        <v>65.873061959235798</v>
+      <c r="E33" s="9">
+        <v>14078</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4726,8 +4747,8 @@
       <c r="D34" s="2">
         <v>4.3730000000000002</v>
       </c>
-      <c r="E34" s="2">
-        <v>69.659137100052305</v>
+      <c r="E34" s="8">
+        <v>14848</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4743,8 +4764,8 @@
       <c r="D35" s="2">
         <v>4.4269999999999996</v>
       </c>
-      <c r="E35" s="2">
-        <v>65.7511178212647</v>
+      <c r="E35" s="9">
+        <v>13947</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4760,8 +4781,8 @@
       <c r="D36" s="2">
         <v>4.0570000000000004</v>
       </c>
-      <c r="E36" s="2">
-        <v>48.3653678648162</v>
+      <c r="E36" s="8">
+        <v>10205</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4777,8 +4798,8 @@
       <c r="D37" s="2">
         <v>3.5</v>
       </c>
-      <c r="E37" s="2">
-        <v>50.008710295569401</v>
+      <c r="E37" s="9">
+        <v>10614</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4794,8 +4815,8 @@
       <c r="D38" s="2">
         <v>3.4420000000000002</v>
       </c>
-      <c r="E38" s="2">
-        <v>45.2122408687068</v>
+      <c r="E38" s="8">
+        <v>9047</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4811,8 +4832,8 @@
       <c r="D39" s="2">
         <v>3.55</v>
       </c>
-      <c r="E39" s="2">
-        <v>43.098542477208099</v>
+      <c r="E39" s="9">
+        <v>8654</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4828,8 +4849,8 @@
       <c r="D40" s="2">
         <v>3.44</v>
       </c>
-      <c r="E40" s="2">
-        <v>57.064049706753401</v>
+      <c r="E40" s="8">
+        <v>11244</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4845,8 +4866,8 @@
       <c r="D41" s="2">
         <v>3.4990000000000001</v>
       </c>
-      <c r="E41" s="2">
-        <v>52.476627373555502</v>
+      <c r="E41" s="9">
+        <v>10254</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4862,8 +4883,8 @@
       <c r="D42" s="2">
         <v>3.6179999999999999</v>
       </c>
-      <c r="E42" s="2">
-        <v>54.172231577724901</v>
+      <c r="E42" s="8">
+        <v>10574</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4879,8 +4900,8 @@
       <c r="D43" s="2">
         <v>3.7559999999999998</v>
       </c>
-      <c r="E43" s="2">
-        <v>65.484002090470895</v>
+      <c r="E43" s="9">
+        <v>12584</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4896,8 +4917,8 @@
       <c r="D44" s="2">
         <v>3.7360000000000002</v>
       </c>
-      <c r="E44" s="2">
-        <v>52.726322513210597</v>
+      <c r="E44" s="8">
+        <v>10234</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4913,8 +4934,8 @@
       <c r="D45" s="2">
         <v>3.6019999999999999</v>
       </c>
-      <c r="E45" s="2">
-        <v>45.926485105394597</v>
+      <c r="E45" s="9">
+        <v>9037</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4930,8 +4951,8 @@
       <c r="D46" s="2">
         <v>3.6459999999999999</v>
       </c>
-      <c r="E46" s="2">
-        <v>56.674989837988498</v>
+      <c r="E46" s="8">
+        <v>11226</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4947,8 +4968,8 @@
       <c r="D47" s="2">
         <v>3.5960000000000001</v>
       </c>
-      <c r="E47" s="2">
-        <v>57.888624353986401</v>
+      <c r="E47" s="9">
+        <v>10933</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4964,8 +4985,8 @@
       <c r="D48" s="2">
         <v>3.6219999999999999</v>
       </c>
-      <c r="E48" s="2">
-        <v>52.610185238952397</v>
+      <c r="E48" s="8">
+        <v>10373</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4981,8 +5002,8 @@
       <c r="D49" s="2">
         <v>3.5289999999999999</v>
       </c>
-      <c r="E49" s="2">
-        <v>68.480343766331799</v>
+      <c r="E49" s="9">
+        <v>13283</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4998,8 +5019,8 @@
       <c r="D50" s="2">
         <v>3.5680000000000001</v>
       </c>
-      <c r="E50" s="2">
-        <v>61.814064223912702</v>
+      <c r="E50" s="8">
+        <v>11660</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5015,8 +5036,8 @@
       <c r="D51" s="2">
         <v>3.496</v>
       </c>
-      <c r="E51" s="2">
-        <v>49.880959293885397</v>
+      <c r="E51" s="9">
+        <v>9876</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5032,8 +5053,8 @@
       <c r="D52" s="2">
         <v>3.4</v>
       </c>
-      <c r="E52" s="2">
-        <v>81.005748795075803</v>
+      <c r="E52" s="8">
+        <v>15234</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5049,8 +5070,8 @@
       <c r="D53" s="2">
         <v>3.343</v>
       </c>
-      <c r="E53" s="2">
-        <v>69.409441960397203</v>
+      <c r="E53" s="9">
+        <v>13180</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5066,8 +5087,8 @@
       <c r="D54" s="2">
         <v>2.9279999999999999</v>
       </c>
-      <c r="E54" s="2">
-        <v>75.338249811276896</v>
+      <c r="E54" s="8">
+        <v>14005</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5083,8 +5104,8 @@
       <c r="D55" s="2">
         <v>2.7010000000000001</v>
       </c>
-      <c r="E55" s="2">
-        <v>90.232855234887595</v>
+      <c r="E55" s="9">
+        <v>17147</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5100,8 +5121,8 @@
       <c r="D56" s="2">
         <v>2.7160000000000002</v>
       </c>
-      <c r="E56" s="2">
-        <v>67.760292665931104</v>
+      <c r="E56" s="8">
+        <v>12606</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5117,8 +5138,8 @@
       <c r="D57" s="2">
         <v>2.4460000000000002</v>
       </c>
-      <c r="E57" s="2">
-        <v>68.2654898089542</v>
+      <c r="E57" s="9">
+        <v>12919</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5134,8 +5155,8 @@
       <c r="D58" s="2">
         <v>2.395</v>
       </c>
-      <c r="E58" s="2">
-        <v>78.590093490505794</v>
+      <c r="E58" s="8">
+        <v>15078</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5151,8 +5172,8 @@
       <c r="D59" s="2">
         <v>2.456</v>
       </c>
-      <c r="E59" s="2">
-        <v>78.932698449567397</v>
+      <c r="E59" s="9">
+        <v>14894</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5168,8 +5189,8 @@
       <c r="D60" s="2">
         <v>2.6520000000000001</v>
       </c>
-      <c r="E60" s="2">
-        <v>80.994135067650006</v>
+      <c r="E60" s="8">
+        <v>15610</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -5185,8 +5206,8 @@
       <c r="D61" s="2">
         <v>3.012</v>
       </c>
-      <c r="E61" s="2">
-        <v>89.7915335927066</v>
+      <c r="E61" s="9">
+        <v>17689</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5202,8 +5223,8 @@
       <c r="D62" s="2">
         <v>3.052</v>
       </c>
-      <c r="E62" s="2">
-        <v>71.836710992392995</v>
+      <c r="E62" s="8">
+        <v>13989</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5219,8 +5240,8 @@
       <c r="D63" s="2">
         <v>3.23</v>
       </c>
-      <c r="E63" s="2">
-        <v>67.022820974391706</v>
+      <c r="E63" s="9">
+        <v>13256</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5236,8 +5257,8 @@
       <c r="D64" s="2">
         <v>3.2890000000000001</v>
       </c>
-      <c r="E64" s="2">
-        <v>97.415945647755606</v>
+      <c r="E64" s="8">
+        <v>18850</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5253,8 +5274,8 @@
       <c r="D65" s="2">
         <v>3.4159999999999999</v>
       </c>
-      <c r="E65" s="2">
-        <v>77.957145345798693</v>
+      <c r="E65" s="9">
+        <v>15037</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5270,8 +5291,8 @@
       <c r="D66" s="2">
         <v>3.1309999999999998</v>
       </c>
-      <c r="E66" s="2">
-        <v>96.202311131757696</v>
+      <c r="E66" s="8">
+        <v>18593</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5287,8 +5308,8 @@
       <c r="D67" s="2">
         <v>2.9580000000000002</v>
       </c>
-      <c r="E67" s="2">
-        <v>98.844434121131201</v>
+      <c r="E67" s="9">
+        <v>19002</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -5304,8 +5325,8 @@
       <c r="D68" s="2">
         <v>3.016</v>
       </c>
-      <c r="E68" s="2">
-        <v>75.843446954300006</v>
+      <c r="E68" s="8">
+        <v>14505</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -5321,8 +5342,8 @@
       <c r="D69" s="2">
         <v>2.4940000000000002</v>
       </c>
-      <c r="E69" s="2">
-        <v>72.539341501655002</v>
+      <c r="E69" s="9">
+        <v>14654</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -5338,8 +5359,8 @@
       <c r="D70" s="2">
         <v>2.0710000000000002</v>
       </c>
-      <c r="E70" s="2">
-        <v>80.099878055862007</v>
+      <c r="E70" s="8">
+        <v>16152</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5355,8 +5376,8 @@
       <c r="D71" s="2">
         <v>2.2320000000000002</v>
       </c>
-      <c r="E71" s="2">
-        <v>71.871552174670398</v>
+      <c r="E71" s="9">
+        <v>14209</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -5372,8 +5393,8 @@
       <c r="D72" s="2">
         <v>2.0049999999999999</v>
       </c>
-      <c r="E72" s="2">
-        <v>87.253934150165506</v>
+      <c r="E72" s="8">
+        <v>17408</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -5389,8 +5410,8 @@
       <c r="D73" s="2">
         <v>1.857</v>
       </c>
-      <c r="E73" s="2">
-        <v>89.083096219731701</v>
+      <c r="E73" s="9">
+        <v>18430</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -5406,8 +5427,8 @@
       <c r="D74" s="2">
         <v>1.7350000000000001</v>
       </c>
-      <c r="E74" s="2">
-        <v>74.722722257708597</v>
+      <c r="E74" s="8">
+        <v>14582</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5423,8 +5444,8 @@
       <c r="D75" s="2">
         <v>1.8440000000000001</v>
       </c>
-      <c r="E75" s="2">
-        <v>82.300679403054403</v>
+      <c r="E75" s="9">
+        <v>15905</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -5440,8 +5461,8 @@
       <c r="D76" s="2">
         <v>1.887</v>
       </c>
-      <c r="E76" s="2">
-        <v>79.408861274025895</v>
+      <c r="E76" s="8">
+        <v>15726</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5457,8 +5478,8 @@
       <c r="D77" s="2">
         <v>1.7130000000000001</v>
       </c>
-      <c r="E77" s="2">
-        <v>70.077231287381693</v>
+      <c r="E77" s="9">
+        <v>13739</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -5474,8 +5495,8 @@
       <c r="D78" s="2">
         <v>1.369</v>
       </c>
-      <c r="E78" s="2">
-        <v>96.515881772254801</v>
+      <c r="E78" s="8">
+        <v>19229</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5491,8 +5512,8 @@
       <c r="D79" s="2">
         <v>1.2549999999999999</v>
       </c>
-      <c r="E79" s="2">
-        <v>81.464491028395599</v>
+      <c r="E79" s="9">
+        <v>16616</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5508,8 +5529,8 @@
       <c r="D80" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E80" s="2">
-        <v>95.104813890017994</v>
+      <c r="E80" s="8">
+        <v>18456</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -5525,8 +5546,8 @@
       <c r="D81" s="2">
         <v>1.149</v>
       </c>
-      <c r="E81" s="2">
-        <v>78.189419894315094</v>
+      <c r="E81" s="9">
+        <v>15656</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5542,8 +5563,8 @@
       <c r="D82" s="2">
         <v>1.31</v>
       </c>
-      <c r="E82" s="2">
-        <v>80.233435921258902</v>
+      <c r="E82" s="8">
+        <v>15666</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5559,8 +5580,8 @@
       <c r="D83" s="2">
         <v>1.292</v>
       </c>
-      <c r="E83" s="2">
-        <v>87.904302886011294</v>
+      <c r="E83" s="9">
+        <v>17326</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5576,8 +5597,8 @@
       <c r="D84" s="2">
         <v>1.113</v>
       </c>
-      <c r="E84" s="2">
-        <v>93.391789094709907</v>
+      <c r="E84" s="8">
+        <v>18564</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5593,8 +5614,8 @@
       <c r="D85" s="2">
         <v>1.0740000000000001</v>
       </c>
-      <c r="E85" s="2">
-        <v>61.674699494802802</v>
+      <c r="E85" s="9">
+        <v>13072</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5610,8 +5631,8 @@
       <c r="D86" s="2">
         <v>1.6120000000000001</v>
       </c>
-      <c r="E86" s="2">
-        <v>85.465420126589606</v>
+      <c r="E86" s="8">
+        <v>16480</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5627,8 +5648,8 @@
       <c r="D87" s="2">
         <v>1.7290000000000001</v>
       </c>
-      <c r="E87" s="2">
-        <v>70.663724522385493</v>
+      <c r="E87" s="9">
+        <v>13942</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5644,8 +5665,8 @@
       <c r="D88" s="2">
         <v>1.5880000000000001</v>
       </c>
-      <c r="E88" s="2">
-        <v>86.464200685209903</v>
+      <c r="E88" s="8">
+        <v>16824</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5661,8 +5682,8 @@
       <c r="D89" s="2">
         <v>1.415</v>
       </c>
-      <c r="E89" s="2">
-        <v>91.069043609546497</v>
+      <c r="E89" s="9">
+        <v>17911</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5678,8 +5699,8 @@
       <c r="D90" s="2">
         <v>1.454</v>
       </c>
-      <c r="E90" s="2">
-        <v>95.610011033041005</v>
+      <c r="E90" s="8">
+        <v>18581</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5695,8 +5716,8 @@
       <c r="D91" s="2">
         <v>1.722</v>
       </c>
-      <c r="E91" s="2">
-        <v>101.190407061146</v>
+      <c r="E91" s="9">
+        <v>19649</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5712,8 +5733,8 @@
       <c r="D92" s="2">
         <v>1.7649999999999999</v>
       </c>
-      <c r="E92" s="2">
-        <v>82.068404854538102</v>
+      <c r="E92" s="8">
+        <v>15942</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5729,8 +5750,8 @@
       <c r="D93" s="2">
         <v>1.94</v>
       </c>
-      <c r="E93" s="2">
-        <v>81.725799895476399</v>
+      <c r="E93" s="9">
+        <v>16357</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5746,8 +5767,8 @@
       <c r="D94" s="2">
         <v>2.0990000000000002</v>
       </c>
-      <c r="E94" s="2">
-        <v>83.549155101329802</v>
+      <c r="E94" s="8">
+        <v>16614</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5763,8 +5784,8 @@
       <c r="D95" s="2">
         <v>1.9339999999999999</v>
       </c>
-      <c r="E95" s="2">
-        <v>96.701701411067901</v>
+      <c r="E95" s="9">
+        <v>18892</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5780,8 +5801,8 @@
       <c r="D96" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="E96" s="2">
-        <v>91.800708437373004</v>
+      <c r="E96" s="8">
+        <v>18105</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5797,8 +5818,8 @@
       <c r="D97" s="2">
         <v>1.885</v>
       </c>
-      <c r="E97" s="2">
-        <v>82.660704953254793</v>
+      <c r="E97" s="9">
+        <v>16785</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5814,8 +5835,8 @@
       <c r="D98" s="2">
         <v>1.8560000000000001</v>
       </c>
-      <c r="E98" s="2">
-        <v>94.315080425062405</v>
+      <c r="E98" s="8">
+        <v>18377</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5831,8 +5852,8 @@
       <c r="D99" s="2">
         <v>1.673</v>
       </c>
-      <c r="E99" s="2">
-        <v>85.517681900005798</v>
+      <c r="E99" s="9">
+        <v>16672</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5848,8 +5869,8 @@
       <c r="D100" s="2">
         <v>1.6140000000000001</v>
       </c>
-      <c r="E100" s="2">
-        <v>97.357877010626595</v>
+      <c r="E100" s="8">
+        <v>19244</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5865,8 +5886,8 @@
       <c r="D101" s="2">
         <v>1.5649999999999999</v>
       </c>
-      <c r="E101" s="2">
-        <v>95.499680622495802</v>
+      <c r="E101" s="9">
+        <v>18641</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5882,8 +5903,8 @@
       <c r="D102" s="2">
         <v>1.4690000000000001</v>
       </c>
-      <c r="E102" s="2">
-        <v>97.746936879391399</v>
+      <c r="E102" s="8">
+        <v>19272</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5899,8 +5920,8 @@
       <c r="D103" s="2">
         <v>1.377</v>
       </c>
-      <c r="E103" s="2">
-        <v>101.80012775100199</v>
+      <c r="E103" s="9">
+        <v>20008</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -5916,8 +5937,8 @@
       <c r="D104" s="2">
         <v>1.2350000000000001</v>
       </c>
-      <c r="E104" s="2">
-        <v>82.591022588699801</v>
+      <c r="E104" s="8">
+        <v>16076</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5933,8 +5954,8 @@
       <c r="D105" s="2">
         <v>1.0660000000000001</v>
       </c>
-      <c r="E105" s="2">
-        <v>84.571163114801706</v>
+      <c r="E105" s="9">
+        <v>16673</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -5950,8 +5971,8 @@
       <c r="D106" s="2">
         <v>0.95899999999999996</v>
       </c>
-      <c r="E106" s="2">
-        <v>83.380756053655404</v>
+      <c r="E106" s="8">
+        <v>16806</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5967,8 +5988,8 @@
       <c r="D107" s="2">
         <v>1.127</v>
       </c>
-      <c r="E107" s="2">
-        <v>94.442831426746395</v>
+      <c r="E107" s="9">
+        <v>19037</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5984,8 +6005,8 @@
       <c r="D108" s="2">
         <v>1.0249999999999999</v>
       </c>
-      <c r="E108" s="2">
-        <v>87.631380291504598</v>
+      <c r="E108" s="8">
+        <v>17952</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -6001,8 +6022,8 @@
       <c r="D109" s="2">
         <v>0.93200000000000005</v>
       </c>
-      <c r="E109" s="2">
-        <v>89.210847221415705</v>
+      <c r="E109" s="9">
+        <v>18447</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -6018,8 +6039,8 @@
       <c r="D110" s="2">
         <v>0.626</v>
       </c>
-      <c r="E110" s="2">
-        <v>92.915626270251394</v>
+      <c r="E110" s="8">
+        <v>18319</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6035,8 +6056,8 @@
       <c r="D111" s="2">
         <v>0.2</v>
       </c>
-      <c r="E111" s="2">
-        <v>78.473956216247601</v>
+      <c r="E111" s="9">
+        <v>15780</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -6052,8 +6073,8 @@
       <c r="D112" s="2">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E112" s="2">
-        <v>113.454503222809</v>
+      <c r="E112" s="8">
+        <v>22732</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -6069,8 +6090,8 @@
       <c r="D113" s="2">
         <v>0.246</v>
       </c>
-      <c r="E113" s="2">
-        <v>98.286975204691998</v>
+      <c r="E113" s="9">
+        <v>19612</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -6086,8 +6107,8 @@
       <c r="D114" s="2">
         <v>0.73</v>
       </c>
-      <c r="E114" s="2">
-        <v>98.728296846872993</v>
+      <c r="E114" s="8">
+        <v>19636</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -6103,8 +6124,8 @@
       <c r="D115" s="2">
         <v>1</v>
       </c>
-      <c r="E115" s="2">
-        <v>123.779106904361</v>
+      <c r="E115" s="9">
+        <v>24553</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -6120,8 +6141,8 @@
       <c r="D116" s="2">
         <v>0.94299999999999995</v>
       </c>
-      <c r="E116" s="2">
-        <v>94.082805876546104</v>
+      <c r="E116" s="8">
+        <v>18187</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -6137,8 +6158,8 @@
       <c r="D117" s="2">
         <v>0.84199999999999997</v>
       </c>
-      <c r="E117" s="2">
-        <v>93.565995006097197</v>
+      <c r="E117" s="9">
+        <v>18801</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -6154,8 +6175,8 @@
       <c r="D118" s="2">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E118" s="2">
-        <v>103.00214853957399</v>
+      <c r="E118" s="8">
+        <v>20547</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -6171,8 +6192,8 @@
       <c r="D119" s="2">
         <v>0.83</v>
       </c>
-      <c r="E119" s="2">
-        <v>97.642413332559101</v>
+      <c r="E119" s="9">
+        <v>19673</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -6188,8 +6209,8 @@
       <c r="D120" s="2">
         <v>0.81200000000000006</v>
       </c>
-      <c r="E120" s="2">
-        <v>99.1057429882121</v>
+      <c r="E120" s="8">
+        <v>20018</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -6205,8 +6226,8 @@
       <c r="D121" s="2">
         <v>0.83399999999999996</v>
       </c>
-      <c r="E121" s="2">
-        <v>106.962429591777</v>
+      <c r="E121" s="9">
+        <v>21778</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -6222,8 +6243,8 @@
       <c r="D122" s="2">
         <v>0.78600000000000003</v>
       </c>
-      <c r="E122" s="2">
-        <v>95.116427617443804</v>
+      <c r="E122" s="8">
+        <v>19245</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -6239,8 +6260,8 @@
       <c r="D123" s="2">
         <v>0.54500000000000004</v>
       </c>
-      <c r="E123" s="2">
-        <v>96.335868997154606</v>
+      <c r="E123" s="9">
+        <v>19500</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -6256,8 +6277,8 @@
       <c r="D124" s="2">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E124" s="2">
-        <v>111.207246965914</v>
+      <c r="E124" s="8">
+        <v>22283</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -6273,8 +6294,8 @@
       <c r="D125" s="2">
         <v>0.39600000000000002</v>
       </c>
-      <c r="E125" s="2">
-        <v>115.30108588351401</v>
+      <c r="E125" s="9">
+        <v>23058</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -6290,8 +6311,8 @@
       <c r="D126" s="2">
         <v>0.41399999999999998</v>
       </c>
-      <c r="E126" s="2">
-        <v>122.669995935195</v>
+      <c r="E126" s="8">
+        <v>24371</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -6307,8 +6328,8 @@
       <c r="D127" s="2">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E127" s="2">
-        <v>137.17554149004101</v>
+      <c r="E127" s="9">
+        <v>27443</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -6324,8 +6345,8 @@
       <c r="D128" s="2">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="E128" s="2">
-        <v>91.127112246675594</v>
+      <c r="E128" s="8">
+        <v>17941</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -6341,8 +6362,8 @@
       <c r="D129" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E129" s="2">
-        <v>100.812960919807</v>
+      <c r="E129" s="9">
+        <v>21218</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -6358,8 +6379,8 @@
       <c r="D130" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="E130" s="2">
-        <v>106.846292317519</v>
+      <c r="E130" s="8">
+        <v>21178</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -6375,8 +6396,8 @@
       <c r="D131" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="E131" s="2">
-        <v>98.676035073456802</v>
+      <c r="E131" s="9">
+        <v>19693</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -6392,8 +6413,8 @@
       <c r="D132" s="2">
         <v>0.32400000000000001</v>
       </c>
-      <c r="E132" s="2">
-        <v>104.384182103246</v>
+      <c r="E132" s="8">
+        <v>20935</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -6409,8 +6430,8 @@
       <c r="D133" s="2">
         <v>0.38900000000000001</v>
       </c>
-      <c r="E133" s="2">
-        <v>112.21764125196</v>
+      <c r="E133" s="9">
+        <v>22586</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -6426,8 +6447,8 @@
       <c r="D134" s="2">
         <v>0.373</v>
       </c>
-      <c r="E134" s="2">
-        <v>113.17577376459001</v>
+      <c r="E134" s="8">
+        <v>22200</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -6443,8 +6464,8 @@
       <c r="D135" s="2">
         <v>0.33400000000000002</v>
       </c>
-      <c r="E135" s="2">
-        <v>101.294930607979</v>
+      <c r="E135" s="9">
+        <v>20141</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -6460,8 +6481,8 @@
       <c r="D136" s="2">
         <v>0.189</v>
       </c>
-      <c r="E136" s="2">
-        <v>132.00162592184</v>
+      <c r="E136" s="8">
+        <v>26427</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -6477,8 +6498,8 @@
       <c r="D137" s="2">
         <v>0.54500000000000004</v>
       </c>
-      <c r="E137" s="2">
-        <v>102.427269031996</v>
+      <c r="E137" s="9">
+        <v>20287</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -6494,8 +6515,8 @@
       <c r="D138" s="2">
         <v>0.63500000000000001</v>
       </c>
-      <c r="E138" s="2">
-        <v>129.562743162418</v>
+      <c r="E138" s="8">
+        <v>25568</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -6511,8 +6532,8 @@
       <c r="D139" s="2">
         <v>0.52900000000000003</v>
       </c>
-      <c r="E139" s="2">
-        <v>139.26020556297499</v>
+      <c r="E139" s="9">
+        <v>27599</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -6528,8 +6549,8 @@
       <c r="D140" s="2">
         <v>0.67300000000000004</v>
       </c>
-      <c r="E140" s="2">
-        <v>88.386272574182698</v>
+      <c r="E140" s="8">
+        <v>17276</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -6545,8 +6566,8 @@
       <c r="D141" s="2">
         <v>0.54600000000000004</v>
       </c>
-      <c r="E141" s="2">
-        <v>88.874049126067007</v>
+      <c r="E141" s="9">
+        <v>18516</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -6562,8 +6583,8 @@
       <c r="D142" s="2">
         <v>0.51</v>
       </c>
-      <c r="E142" s="2">
-        <v>83.189129551129398</v>
+      <c r="E142" s="8">
+        <v>17352</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -6579,8 +6600,8 @@
       <c r="D143" s="2">
         <v>0.53100000000000003</v>
       </c>
-      <c r="E143" s="2">
-        <v>107.56634341792</v>
+      <c r="E143" s="9">
+        <v>20909</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -6596,8 +6617,8 @@
       <c r="D144" s="2">
         <v>0.442</v>
       </c>
-      <c r="E144" s="2">
-        <v>104.60484292433701</v>
+      <c r="E144" s="8">
+        <v>21479</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -6613,8 +6634,8 @@
       <c r="D145" s="2">
         <v>0.41</v>
       </c>
-      <c r="E145" s="2">
-        <v>95.708727716160496</v>
+      <c r="E145" s="9">
+        <v>19849</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -6630,8 +6651,8 @@
       <c r="D146" s="2">
         <v>0.56699999999999995</v>
       </c>
-      <c r="E146" s="2">
-        <v>115.544974159456</v>
+      <c r="E146" s="8">
+        <v>22488</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -6647,8 +6668,8 @@
       <c r="D147" s="2">
         <v>0.77200000000000002</v>
       </c>
-      <c r="E147" s="2">
-        <v>100.301956913071</v>
+      <c r="E147" s="9">
+        <v>19706</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -6664,8 +6685,8 @@
       <c r="D148" s="2">
         <v>0.64200000000000002</v>
       </c>
-      <c r="E148" s="2">
-        <v>114.88879855989801</v>
+      <c r="E148" s="8">
+        <v>22537</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -6681,8 +6702,8 @@
       <c r="D149" s="2">
         <v>0.55300000000000005</v>
       </c>
-      <c r="E149" s="2">
-        <v>108.971604436444</v>
+      <c r="E149" s="9">
+        <v>21602</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -6698,8 +6719,8 @@
       <c r="D150" s="2">
         <v>0.51800000000000002</v>
       </c>
-      <c r="E150" s="2">
-        <v>131.19447186574499</v>
+      <c r="E150" s="8">
+        <v>25944</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -6715,8 +6736,8 @@
       <c r="D151" s="2">
         <v>0.40699999999999997</v>
       </c>
-      <c r="E151" s="2">
-        <v>130.98542477208099</v>
+      <c r="E151" s="9">
+        <v>25731</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -6732,8 +6753,8 @@
       <c r="D152" s="2">
         <v>0.32</v>
       </c>
-      <c r="E152" s="2">
-        <v>95.708727716160496</v>
+      <c r="E152" s="8">
+        <v>18342</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -6749,8 +6770,8 @@
       <c r="D153" s="2">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E153" s="2">
-        <v>119.998838627257</v>
+      <c r="E153" s="9">
+        <v>23726</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -6766,8 +6787,8 @@
       <c r="D154" s="2">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E154" s="2">
-        <v>69.601068462923195</v>
+      <c r="E154" s="8">
+        <v>14571</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -6783,8 +6804,8 @@
       <c r="D155" s="2">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E155" s="2">
-        <v>96.637825910225899</v>
+      <c r="E155" s="9">
+        <v>19886</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6800,8 +6821,8 @@
       <c r="D156" s="2">
         <v>0.33600000000000002</v>
       </c>
-      <c r="E156" s="2">
-        <v>104.111259508739</v>
+      <c r="E156" s="8">
+        <v>21112</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -6817,8 +6838,8 @@
       <c r="D157" s="2">
         <v>0.23400000000000001</v>
       </c>
-      <c r="E157" s="2">
-        <v>80.715405609430405</v>
+      <c r="E157" s="9">
+        <v>16632</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -6834,8 +6855,8 @@
       <c r="D158" s="2">
         <v>0.153</v>
       </c>
-      <c r="E158" s="2">
-        <v>123.633935311538</v>
+      <c r="E158" s="8">
+        <v>24046</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -6851,8 +6872,8 @@
       <c r="D159" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E159" s="2">
-        <v>107.990244468962</v>
+      <c r="E159" s="9">
+        <v>21220</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6868,8 +6889,8 @@
       <c r="D160" s="2">
         <v>0.16300000000000001</v>
       </c>
-      <c r="E160" s="2">
-        <v>152.070146913652</v>
+      <c r="E160" s="8">
+        <v>29680</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6885,8 +6906,8 @@
       <c r="D161" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E161" s="2">
-        <v>94.384762789617298</v>
+      <c r="E161" s="9">
+        <v>18980</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6902,8 +6923,8 @@
       <c r="D162" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E162" s="2">
-        <v>111.17240578363599</v>
+      <c r="E162" s="8">
+        <v>21981</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6919,8 +6940,8 @@
       <c r="D163" s="2">
         <v>-0.217</v>
       </c>
-      <c r="E163" s="2">
-        <v>120.666627954242</v>
+      <c r="E163" s="9">
+        <v>23539</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -6936,8 +6957,8 @@
       <c r="D164" s="2">
         <v>-0.308</v>
       </c>
-      <c r="E164" s="2">
-        <v>97.415945647755606</v>
+      <c r="E164" s="8">
+        <v>18571</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6953,8 +6974,8 @@
       <c r="D165" s="2">
         <v>-0.57899999999999996</v>
       </c>
-      <c r="E165" s="2">
-        <v>108.652226932234</v>
+      <c r="E165" s="9">
+        <v>21751</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6970,8 +6991,8 @@
       <c r="D166" s="2">
         <v>-0.59099999999999997</v>
       </c>
-      <c r="E166" s="2">
-        <v>92.607862493467294</v>
+      <c r="E166" s="8">
+        <v>18456</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6987,8 +7008,8 @@
       <c r="D167" s="2">
         <v>-0.432</v>
       </c>
-      <c r="E167" s="2">
-        <v>106.68370013355801</v>
+      <c r="E167" s="9">
+        <v>21065</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -7004,8 +7025,8 @@
       <c r="D168" s="2">
         <v>-0.312</v>
       </c>
-      <c r="E168" s="2">
-        <v>105.022937111666</v>
+      <c r="E168" s="8">
+        <v>21114</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -7021,8 +7042,8 @@
       <c r="D169" s="2">
         <v>-0.25800000000000001</v>
       </c>
-      <c r="E169" s="2">
-        <v>89.8379885024098</v>
+      <c r="E169" s="9">
+        <v>18316</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -7038,8 +7059,8 @@
       <c r="D170" s="2">
         <v>-0.25900000000000001</v>
       </c>
-      <c r="E170" s="2">
-        <v>108.472214157134</v>
+      <c r="E170" s="8">
+        <v>21462</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -7055,8 +7076,8 @@
       <c r="D171" s="2">
         <v>-0.41099999999999998</v>
       </c>
-      <c r="E171" s="2">
-        <v>87.433946925265602</v>
+      <c r="E171" s="9">
+        <v>17500</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -7072,8 +7093,8 @@
       <c r="D172" s="2">
         <v>-0.40899999999999997</v>
       </c>
-      <c r="E172" s="2">
-        <v>88.363045119331005</v>
+      <c r="E172" s="8">
+        <v>17927</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -7089,8 +7110,8 @@
       <c r="D173" s="2">
         <v>-0.21</v>
       </c>
-      <c r="E173" s="2">
-        <v>59.723593287265601</v>
+      <c r="E173" s="9">
+        <v>12013</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -7106,8 +7127,8 @@
       <c r="D174" s="2">
         <v>-0.28799999999999998</v>
       </c>
-      <c r="E174" s="2">
-        <v>67.046048429243399</v>
+      <c r="E174" s="8">
+        <v>13247</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -7123,8 +7144,8 @@
       <c r="D175" s="2">
         <v>-0.26400000000000001</v>
       </c>
-      <c r="E175" s="2">
-        <v>104.80227629057499</v>
+      <c r="E175" s="9">
+        <v>20260</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -7140,8 +7161,8 @@
       <c r="D176" s="2">
         <v>-0.34100000000000003</v>
       </c>
-      <c r="E176" s="2">
-        <v>110.92271064398101</v>
+      <c r="E176" s="8">
+        <v>20947</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -7157,8 +7178,8 @@
       <c r="D177" s="2">
         <v>-0.35699999999999998</v>
       </c>
-      <c r="E177" s="2">
-        <v>102.64212298937299</v>
+      <c r="E177" s="9">
+        <v>20331</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -7174,8 +7195,8 @@
       <c r="D178" s="2">
         <v>-0.38500000000000001</v>
       </c>
-      <c r="E178" s="2">
-        <v>100.058068637129</v>
+      <c r="E178" s="8">
+        <v>20168</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -7191,8 +7212,8 @@
       <c r="D179" s="2">
         <v>-0.45800000000000002</v>
       </c>
-      <c r="E179" s="2">
-        <v>87.834620521456401</v>
+      <c r="E179" s="9">
+        <v>17974</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -7208,8 +7229,8 @@
       <c r="D180" s="2">
         <v>-0.46</v>
       </c>
-      <c r="E180" s="2">
-        <v>105.905580396028</v>
+      <c r="E180" s="8">
+        <v>21035</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -7225,8 +7246,8 @@
       <c r="D181" s="2">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="E181" s="2">
-        <v>132.23970733406901</v>
+      <c r="E181" s="9">
+        <v>26397</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -7242,8 +7263,8 @@
       <c r="D182" s="2">
         <v>-0.44400000000000001</v>
       </c>
-      <c r="E182" s="2">
-        <v>59.880378607514103</v>
+      <c r="E182" s="8">
+        <v>12323</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -7259,8 +7280,8 @@
       <c r="D183" s="2">
         <v>-0.28199999999999997</v>
       </c>
-      <c r="E183" s="2">
-        <v>57.929272399976803</v>
+      <c r="E183" s="9">
+        <v>12556</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -7276,8 +7297,8 @@
       <c r="D184" s="2">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="E184" s="2">
-        <v>138.621450554555</v>
+      <c r="E184" s="8">
+        <v>27511</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -7293,8 +7314,8 @@
       <c r="D185" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E185" s="2">
-        <v>90.761279832762298</v>
+      <c r="E185" s="9">
+        <v>18221</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -7310,8 +7331,8 @@
       <c r="D186" s="2">
         <v>0.113</v>
       </c>
-      <c r="E186" s="2">
-        <v>98.827013529992399</v>
+      <c r="E186" s="8">
+        <v>19682</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -7327,8 +7348,8 @@
       <c r="D187" s="2">
         <v>0.106</v>
       </c>
-      <c r="E187" s="2">
-        <v>119.08135416061801</v>
+      <c r="E187" s="9">
+        <v>23388</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -7344,8 +7365,8 @@
       <c r="D188" s="2">
         <v>-0.05</v>
       </c>
-      <c r="E188" s="2">
-        <v>78.770106265606003</v>
+      <c r="E188" s="8">
+        <v>15256</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -7361,8 +7382,8 @@
       <c r="D189" s="2">
         <v>-0.156</v>
       </c>
-      <c r="E189" s="2">
-        <v>92.416235990941303</v>
+      <c r="E189" s="9">
+        <v>18430</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -7378,8 +7399,8 @@
       <c r="D190" s="2">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="E190" s="2">
-        <v>82.9452412751873</v>
+      <c r="E190" s="8">
+        <v>16724</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -7395,8 +7416,8 @@
       <c r="D191" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="E191" s="2">
-        <v>73.863306428198101</v>
+      <c r="E191" s="9">
+        <v>14875</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -7412,8 +7433,8 @@
       <c r="D192" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E192" s="2">
-        <v>86.957784100807203</v>
+      <c r="E192" s="8">
+        <v>17285</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -7429,8 +7450,8 @@
       <c r="D193" s="2">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="E193" s="2">
-        <v>103.460890772894</v>
+      <c r="E193" s="9">
+        <v>20697</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -7446,8 +7467,8 @@
       <c r="D194" s="2">
         <v>0.114</v>
       </c>
-      <c r="E194" s="2">
-        <v>54.886475814412599</v>
+      <c r="E194" s="8">
+        <v>11536</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -7463,8 +7484,8 @@
       <c r="D195" s="2">
         <v>0.45800000000000002</v>
       </c>
-      <c r="E195" s="2">
-        <v>59.619069740433197</v>
+      <c r="E195" s="9">
+        <v>12659</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -7480,8 +7501,8 @@
       <c r="D196" s="2">
         <v>0.56499999999999995</v>
       </c>
-      <c r="E196" s="2">
-        <v>85.639626037976896</v>
+      <c r="E196" s="8">
+        <v>17505</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -7497,8 +7518,8 @@
       <c r="D197" s="2">
         <v>1.04</v>
       </c>
-      <c r="E197" s="2">
-        <v>64.729109807792796</v>
+      <c r="E197" s="9">
+        <v>13266</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -7514,8 +7535,8 @@
       <c r="D198" s="2">
         <v>1.298</v>
       </c>
-      <c r="E198" s="2">
-        <v>79.194007316648296</v>
+      <c r="E198" s="8">
+        <v>15803</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -7531,8 +7552,8 @@
       <c r="D199" s="2">
         <v>1.835</v>
       </c>
-      <c r="E199" s="2">
-        <v>86.876488008826399</v>
+      <c r="E199" s="9">
+        <v>17074</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -7548,8 +7569,8 @@
       <c r="D200" s="2">
         <v>1.5860000000000001</v>
       </c>
-      <c r="E200" s="2">
-        <v>57.580860577202202</v>
+      <c r="E200" s="8">
+        <v>11369</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -7565,8 +7586,8 @@
       <c r="D201" s="2">
         <v>1.375</v>
       </c>
-      <c r="E201" s="2">
-        <v>74.473027118053494</v>
+      <c r="E201" s="9">
+        <v>15364</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -7582,8 +7603,8 @@
       <c r="D202" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E202" s="2">
-        <v>75.796992044596706</v>
+      <c r="E202" s="8">
+        <v>15484</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -7599,8 +7620,8 @@
       <c r="D203" s="2">
         <v>2.5990000000000002</v>
       </c>
-      <c r="E203" s="2">
-        <v>63.242552697288197</v>
+      <c r="E203" s="9">
+        <v>12716</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -7616,8 +7637,8 @@
       <c r="D204" s="2">
         <v>2.3780000000000001</v>
       </c>
-      <c r="E204" s="2">
-        <v>76.400905870739194</v>
+      <c r="E204" s="8">
+        <v>15316</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -7633,9 +7654,12 @@
       <c r="D205" s="2">
         <v>2.2850000000000001</v>
       </c>
-      <c r="E205" s="2">
-        <v>88.502409848440806</v>
-      </c>
+      <c r="E205" s="9">
+        <v>17355</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E206" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7647,8 +7671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B840FC7-5180-459D-82F9-B4A7E9304FDD}">
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B184" sqref="B1:E1048576"/>
+    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7689,8 +7713,8 @@
       <c r="D2" s="2">
         <v>3.65</v>
       </c>
-      <c r="E2" s="2">
-        <v>64.899178066607902</v>
+      <c r="E2" s="8">
+        <v>10606</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7706,8 +7730,8 @@
       <c r="D3" s="2">
         <v>3.72</v>
       </c>
-      <c r="E3" s="2">
-        <v>64.6534512670288</v>
+      <c r="E3" s="9">
+        <v>10271</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7723,8 +7747,8 @@
       <c r="D4" s="2">
         <v>3.84</v>
       </c>
-      <c r="E4" s="2">
-        <v>84.919086487870103</v>
+      <c r="E4" s="8">
+        <v>13310</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7740,8 +7764,8 @@
       <c r="D5" s="2">
         <v>4.07</v>
       </c>
-      <c r="E5" s="2">
-        <v>73.288017974460402</v>
+      <c r="E5" s="9">
+        <v>11062</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7757,8 +7781,8 @@
       <c r="D6" s="2">
         <v>4.17</v>
       </c>
-      <c r="E6" s="2">
-        <v>90.939393077557497</v>
+      <c r="E6" s="8">
+        <v>13930</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7774,8 +7798,8 @@
       <c r="D7" s="2">
         <v>4.26</v>
       </c>
-      <c r="E7" s="2">
-        <v>85.922470919484596</v>
+      <c r="E7" s="9">
+        <v>12960</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7791,8 +7815,8 @@
       <c r="D8" s="2">
         <v>4.3099999999999996</v>
       </c>
-      <c r="E8" s="2">
-        <v>94.372742527231907</v>
+      <c r="E8" s="8">
+        <v>13027</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7808,8 +7832,8 @@
       <c r="D9" s="2">
         <v>4.2</v>
       </c>
-      <c r="E9" s="2">
-        <v>81.847501493131603</v>
+      <c r="E9" s="9">
+        <v>12127</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7825,8 +7849,8 @@
       <c r="D10" s="2">
         <v>4.12</v>
       </c>
-      <c r="E10" s="2">
-        <v>80.523307073177705</v>
+      <c r="E10" s="8">
+        <v>12262</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7842,8 +7866,8 @@
       <c r="D11" s="2">
         <v>4.18</v>
       </c>
-      <c r="E11" s="2">
-        <v>77.035351668041301</v>
+      <c r="E11" s="9">
+        <v>11974</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7859,8 +7883,8 @@
       <c r="D12" s="2">
         <v>4.16</v>
       </c>
-      <c r="E12" s="2">
-        <v>76.345951480333298</v>
+      <c r="E12" s="8">
+        <v>13041</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7876,8 +7900,8 @@
       <c r="D13" s="2">
         <v>4.24</v>
       </c>
-      <c r="E13" s="2">
-        <v>98.406757486988397</v>
+      <c r="E13" s="9">
+        <v>17204</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7893,8 +7917,8 @@
       <c r="D14" s="2">
         <v>4.3899999999999997</v>
       </c>
-      <c r="E14" s="2">
-        <v>102.45442393561</v>
+      <c r="E14" s="8">
+        <v>15739</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7910,8 +7934,8 @@
       <c r="D15" s="2">
         <v>4.5199999999999996</v>
       </c>
-      <c r="E15" s="2">
-        <v>80.687124939563702</v>
+      <c r="E15" s="9">
+        <v>13091</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7927,8 +7951,8 @@
       <c r="D16" s="2">
         <v>4.45</v>
       </c>
-      <c r="E16" s="2">
-        <v>95.082619948238104</v>
+      <c r="E16" s="8">
+        <v>15478</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7944,8 +7968,8 @@
       <c r="D17" s="2">
         <v>4.71</v>
       </c>
-      <c r="E17" s="2">
-        <v>75.786240436847606</v>
+      <c r="E17" s="9">
+        <v>12007</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7961,8 +7985,8 @@
       <c r="D18" s="2">
         <v>4.88</v>
       </c>
-      <c r="E18" s="2">
-        <v>101.887887147692</v>
+      <c r="E18" s="8">
+        <v>16455</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7978,8 +8002,8 @@
       <c r="D19" s="2">
         <v>5.19</v>
       </c>
-      <c r="E19" s="2">
-        <v>96.597935212309096</v>
+      <c r="E19" s="9">
+        <v>14729</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7995,8 +8019,8 @@
       <c r="D20" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E20" s="2">
-        <v>108.317738403345</v>
+      <c r="E20" s="8">
+        <v>15066</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8012,8 +8036,8 @@
       <c r="D21" s="2">
         <v>4.91</v>
       </c>
-      <c r="E21" s="2">
-        <v>97.198600722391305</v>
+      <c r="E21" s="9">
+        <v>14656</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8029,8 +8053,8 @@
       <c r="D22" s="2">
         <v>4.8099999999999996</v>
       </c>
-      <c r="E22" s="2">
-        <v>83.751884189869401</v>
+      <c r="E22" s="8">
+        <v>12744</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -8046,8 +8070,8 @@
       <c r="D23" s="2">
         <v>4.91</v>
       </c>
-      <c r="E23" s="2">
-        <v>108.269958192315</v>
+      <c r="E23" s="9">
+        <v>15530</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8063,8 +8087,8 @@
       <c r="D24" s="2">
         <v>4.76</v>
       </c>
-      <c r="E24" s="2">
-        <v>91.758482409487797</v>
+      <c r="E24" s="8">
+        <v>14565</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8080,8 +8104,8 @@
       <c r="D25" s="2">
         <v>4.66</v>
       </c>
-      <c r="E25" s="2">
-        <v>77.424419100708207</v>
+      <c r="E25" s="9">
+        <v>14743</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -8097,8 +8121,8 @@
       <c r="D26" s="2">
         <v>4.5199999999999996</v>
       </c>
-      <c r="E26" s="2">
-        <v>83.465202923693894</v>
+      <c r="E26" s="8">
+        <v>12321</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -8114,8 +8138,8 @@
       <c r="D27" s="2">
         <v>4.3899999999999997</v>
       </c>
-      <c r="E27" s="2">
-        <v>90.304598845311602</v>
+      <c r="E27" s="9">
+        <v>13775</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -8131,8 +8155,8 @@
       <c r="D28" s="2">
         <v>4.28</v>
       </c>
-      <c r="E28" s="2">
-        <v>80.571087284206897</v>
+      <c r="E28" s="8">
+        <v>12536</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -8148,8 +8172,8 @@
       <c r="D29" s="2">
         <v>4.5</v>
       </c>
-      <c r="E29" s="2">
-        <v>100.181451039504</v>
+      <c r="E29" s="9">
+        <v>15736</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8165,8 +8189,8 @@
       <c r="D30" s="2">
         <v>4.63</v>
       </c>
-      <c r="E30" s="2">
-        <v>88.830238047837099</v>
+      <c r="E30" s="8">
+        <v>13618</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8182,8 +8206,8 @@
       <c r="D31" s="2">
         <v>4.9400000000000004</v>
       </c>
-      <c r="E31" s="2">
-        <v>83.5129831347231</v>
+      <c r="E31" s="9">
+        <v>12719</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8199,8 +8223,8 @@
       <c r="D32" s="2">
         <v>4.9400000000000004</v>
       </c>
-      <c r="E32" s="2">
-        <v>86.516310685134101</v>
+      <c r="E32" s="8">
+        <v>12107</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -8216,8 +8240,8 @@
       <c r="D33" s="2">
         <v>4.6900000000000004</v>
       </c>
-      <c r="E33" s="2">
-        <v>69.759108102727396</v>
+      <c r="E33" s="9">
+        <v>10790</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8233,8 +8257,8 @@
       <c r="D34" s="2">
         <v>4.49</v>
       </c>
-      <c r="E34" s="2">
-        <v>74.195841984016397</v>
+      <c r="E34" s="8">
+        <v>11156</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8250,8 +8274,8 @@
       <c r="D35" s="2">
         <v>4.17</v>
       </c>
-      <c r="E35" s="2">
-        <v>70.079918091066801</v>
+      <c r="E35" s="9">
+        <v>10984</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8267,8 +8291,8 @@
       <c r="D36" s="2">
         <v>4.18</v>
       </c>
-      <c r="E36" s="2">
-        <v>55.4659992605444</v>
+      <c r="E36" s="8">
+        <v>9295</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8284,8 +8308,8 @@
       <c r="D37" s="2">
         <v>3.77</v>
       </c>
-      <c r="E37" s="2">
-        <v>60.714996729330799</v>
+      <c r="E37" s="9">
+        <v>10450</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8301,8 +8325,8 @@
       <c r="D38" s="2">
         <v>3.69</v>
       </c>
-      <c r="E38" s="2">
-        <v>43.916839680327598</v>
+      <c r="E38" s="8">
+        <v>6954</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8318,8 +8342,8 @@
       <c r="D39" s="2">
         <v>3.75</v>
       </c>
-      <c r="E39" s="2">
-        <v>51.152128779045</v>
+      <c r="E39" s="9">
+        <v>8091</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8335,8 +8359,8 @@
       <c r="D40" s="2">
         <v>3.81</v>
       </c>
-      <c r="E40" s="2">
-        <v>64.366770000853194</v>
+      <c r="E40" s="8">
+        <v>9697</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -8352,8 +8376,8 @@
       <c r="D41" s="2">
         <v>3.9</v>
       </c>
-      <c r="E41" s="2">
-        <v>66.3598873752169</v>
+      <c r="E41" s="9">
+        <v>9306</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8369,8 +8393,8 @@
       <c r="D42" s="2">
         <v>4.12</v>
       </c>
-      <c r="E42" s="2">
-        <v>66.510053752737406</v>
+      <c r="E42" s="8">
+        <v>9279</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8386,8 +8410,8 @@
       <c r="D43" s="2">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E43" s="2">
-        <v>68.701117715650895</v>
+      <c r="E43" s="9">
+        <v>9455</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8403,8 +8427,8 @@
       <c r="D44" s="2">
         <v>4.05</v>
       </c>
-      <c r="E44" s="2">
-        <v>85.847387730724407</v>
+      <c r="E44" s="8">
+        <v>11029</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8420,8 +8444,8 @@
       <c r="D45" s="2">
         <v>4.17</v>
       </c>
-      <c r="E45" s="2">
-        <v>70.714712323312796</v>
+      <c r="E45" s="9">
+        <v>9900</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8437,8 +8461,8 @@
       <c r="D46" s="2">
         <v>4.17</v>
       </c>
-      <c r="E46" s="2">
-        <v>83.663149512243706</v>
+      <c r="E46" s="8">
+        <v>11647</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8454,8 +8478,8 @@
       <c r="D47" s="2">
         <v>4.07</v>
       </c>
-      <c r="E47" s="2">
-        <v>88.441170615170194</v>
+      <c r="E47" s="9">
+        <v>12306</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8471,8 +8495,8 @@
       <c r="D48" s="2">
         <v>4.04</v>
       </c>
-      <c r="E48" s="2">
-        <v>82.905491880208203</v>
+      <c r="E48" s="8">
+        <v>11706</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8488,8 +8512,8 @@
       <c r="D49" s="2">
         <v>3.98</v>
       </c>
-      <c r="E49" s="2">
-        <v>86.796166206877004</v>
+      <c r="E49" s="9">
+        <v>12809</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8505,8 +8529,8 @@
       <c r="D50" s="2">
         <v>4.08</v>
       </c>
-      <c r="E50" s="2">
-        <v>78.516538209948493</v>
+      <c r="E50" s="8">
+        <v>11602</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8522,8 +8546,8 @@
       <c r="D51" s="2">
         <v>3.87</v>
       </c>
-      <c r="E51" s="2">
-        <v>76.188959358380004</v>
+      <c r="E51" s="9">
+        <v>11126</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -8539,8 +8563,8 @@
       <c r="D52" s="2">
         <v>3.85</v>
       </c>
-      <c r="E52" s="2">
-        <v>97.567190921759902</v>
+      <c r="E52" s="8">
+        <v>14136</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8556,8 +8580,8 @@
       <c r="D53" s="2">
         <v>3.84</v>
       </c>
-      <c r="E53" s="2">
-        <v>92.509314297090498</v>
+      <c r="E53" s="9">
+        <v>13404</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -8573,8 +8597,8 @@
       <c r="D54" s="2">
         <v>3.46</v>
       </c>
-      <c r="E54" s="2">
-        <v>87.048718750888796</v>
+      <c r="E54" s="8">
+        <v>12372</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8590,8 +8614,8 @@
       <c r="D55" s="2">
         <v>3.36</v>
       </c>
-      <c r="E55" s="2">
-        <v>97.075737322601796</v>
+      <c r="E55" s="9">
+        <v>13569</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8607,8 +8631,8 @@
       <c r="D56" s="2">
         <v>3.33</v>
       </c>
-      <c r="E56" s="2">
-        <v>103.041437956827</v>
+      <c r="E56" s="8">
+        <v>13600</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8624,8 +8648,8 @@
       <c r="D57" s="2">
         <v>3.12</v>
       </c>
-      <c r="E57" s="2">
-        <v>90.516196922726905</v>
+      <c r="E57" s="9">
+        <v>12951</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8641,8 +8665,8 @@
       <c r="D58" s="2">
         <v>3.3</v>
       </c>
-      <c r="E58" s="2">
-        <v>95.635505247290993</v>
+      <c r="E58" s="8">
+        <v>13615</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -8658,8 +8682,8 @@
       <c r="D59" s="2">
         <v>3.24</v>
       </c>
-      <c r="E59" s="2">
-        <v>90.932567333124794</v>
+      <c r="E59" s="9">
+        <v>12903</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8675,8 +8699,8 @@
       <c r="D60" s="2">
         <v>3.28</v>
       </c>
-      <c r="E60" s="2">
-        <v>97.273683911151593</v>
+      <c r="E60" s="8">
+        <v>14551</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8692,8 +8716,8 @@
       <c r="D61" s="2">
         <v>3.61</v>
       </c>
-      <c r="E61" s="2">
-        <v>81.540342993657802</v>
+      <c r="E61" s="9">
+        <v>12965</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8709,8 +8733,8 @@
       <c r="D62" s="2">
         <v>3.75</v>
       </c>
-      <c r="E62" s="2">
-        <v>83.526634623588606</v>
+      <c r="E62" s="8">
+        <v>12962</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -8726,8 +8750,8 @@
       <c r="D63" s="2">
         <v>3.81</v>
       </c>
-      <c r="E63" s="2">
-        <v>86.181849207929204</v>
+      <c r="E63" s="9">
+        <v>13095</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8743,8 +8767,8 @@
       <c r="D64" s="2">
         <v>3.77</v>
       </c>
-      <c r="E64" s="2">
-        <v>105.43044850829</v>
+      <c r="E64" s="8">
+        <v>16059</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8760,8 +8784,8 @@
       <c r="D65" s="2">
         <v>3.79</v>
       </c>
-      <c r="E65" s="2">
-        <v>95.185006114729404</v>
+      <c r="E65" s="9">
+        <v>13921</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8777,8 +8801,8 @@
       <c r="D66" s="2">
         <v>3.48</v>
       </c>
-      <c r="E66" s="2">
-        <v>109.00713859105301</v>
+      <c r="E66" s="8">
+        <v>16302</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -8794,8 +8818,8 @@
       <c r="D67" s="2">
         <v>3.36</v>
       </c>
-      <c r="E67" s="2">
-        <v>88.871192514433602</v>
+      <c r="E67" s="9">
+        <v>13095</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -8811,8 +8835,8 @@
       <c r="D68" s="2">
         <v>3.24</v>
       </c>
-      <c r="E68" s="2">
-        <v>98.099598987514597</v>
+      <c r="E68" s="8">
+        <v>13507</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8828,8 +8852,8 @@
       <c r="D69" s="2">
         <v>2.6</v>
       </c>
-      <c r="E69" s="2">
-        <v>97.130343278063805</v>
+      <c r="E69" s="9">
+        <v>14357</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8845,8 +8869,8 @@
       <c r="D70" s="2">
         <v>2.36</v>
       </c>
-      <c r="E70" s="2">
-        <v>99.3350587298427</v>
+      <c r="E70" s="8">
+        <v>14673</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8862,8 +8886,8 @@
       <c r="D71" s="2">
         <v>2.59</v>
       </c>
-      <c r="E71" s="2">
-        <v>95.963140980063102</v>
+      <c r="E71" s="9">
+        <v>14443</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8879,8 +8903,8 @@
       <c r="D72" s="2">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E72" s="2">
-        <v>100.864025482779</v>
+      <c r="E72" s="8">
+        <v>15897</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8896,8 +8920,8 @@
       <c r="D73" s="2">
         <v>2.38</v>
       </c>
-      <c r="E73" s="2">
-        <v>90.898438610960994</v>
+      <c r="E73" s="9">
+        <v>15545</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8913,8 +8937,8 @@
       <c r="D74" s="2">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E74" s="2">
-        <v>88.072580415801596</v>
+      <c r="E74" s="8">
+        <v>13140</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -8930,8 +8954,8 @@
       <c r="D75" s="2">
         <v>2.4</v>
       </c>
-      <c r="E75" s="2">
-        <v>89.929182901510202</v>
+      <c r="E75" s="9">
+        <v>13678</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -8947,8 +8971,8 @@
       <c r="D76" s="2">
         <v>2.48</v>
       </c>
-      <c r="E76" s="2">
-        <v>109.635107078866</v>
+      <c r="E76" s="8">
+        <v>16168</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -8964,8 +8988,8 @@
       <c r="D77" s="2">
         <v>2.34</v>
       </c>
-      <c r="E77" s="2">
-        <v>92.386450897301003</v>
+      <c r="E77" s="9">
+        <v>13385</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -8981,8 +9005,8 @@
       <c r="D78" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E78" s="2">
-        <v>107.53277779357801</v>
+      <c r="E78" s="8">
+        <v>15350</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -8998,8 +9022,8 @@
       <c r="D79" s="2">
         <v>1.94</v>
       </c>
-      <c r="E79" s="2">
-        <v>95.915360769033896</v>
+      <c r="E79" s="9">
+        <v>13519</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -9015,8 +9039,8 @@
       <c r="D80" s="2">
         <v>1.73</v>
       </c>
-      <c r="E80" s="2">
-        <v>105.580614885811</v>
+      <c r="E80" s="8">
+        <v>14063</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -9032,8 +9056,8 @@
       <c r="D81" s="2">
         <v>1.92</v>
       </c>
-      <c r="E81" s="2">
-        <v>102.433946702312</v>
+      <c r="E81" s="9">
+        <v>14873</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -9049,8 +9073,8 @@
       <c r="D82" s="2">
         <v>2.0699999999999998</v>
       </c>
-      <c r="E82" s="2">
-        <v>96.352208412729993</v>
+      <c r="E82" s="8">
+        <v>13696</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -9066,8 +9090,8 @@
       <c r="D83" s="2">
         <v>1.98</v>
       </c>
-      <c r="E83" s="2">
-        <v>107.355308438327</v>
+      <c r="E83" s="9">
+        <v>15293</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -9083,8 +9107,8 @@
       <c r="D84" s="2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E84" s="2">
-        <v>100.77529080515301</v>
+      <c r="E84" s="8">
+        <v>14671</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -9100,8 +9124,8 @@
       <c r="D85" s="2">
         <v>2.08</v>
       </c>
-      <c r="E85" s="2">
-        <v>76.885185290520795</v>
+      <c r="E85" s="9">
+        <v>11980</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9117,8 +9141,8 @@
       <c r="D86" s="2">
         <v>2.31</v>
       </c>
-      <c r="E86" s="2">
-        <v>97.546713688461594</v>
+      <c r="E86" s="8">
+        <v>14392</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9134,8 +9158,8 @@
       <c r="D87" s="2">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E87" s="2">
-        <v>94.673075282273004</v>
+      <c r="E87" s="9">
+        <v>13740</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -9151,8 +9175,8 @@
       <c r="D88" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E88" s="2">
-        <v>93.205540229231204</v>
+      <c r="E88" s="8">
+        <v>13218</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9168,8 +9192,8 @@
       <c r="D89" s="2">
         <v>2.0699999999999998</v>
       </c>
-      <c r="E89" s="2">
-        <v>118.610961007935</v>
+      <c r="E89" s="9">
+        <v>17298</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -9185,8 +9209,8 @@
       <c r="D90" s="2">
         <v>2.1</v>
       </c>
-      <c r="E90" s="2">
-        <v>105.28028213077</v>
+      <c r="E90" s="8">
+        <v>14376</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9202,8 +9226,8 @@
       <c r="D91" s="2">
         <v>2.4</v>
       </c>
-      <c r="E91" s="2">
-        <v>96.556980745712593</v>
+      <c r="E91" s="9">
+        <v>13416</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9219,8 +9243,8 @@
       <c r="D92" s="2">
         <v>2.61</v>
       </c>
-      <c r="E92" s="2">
-        <v>102.133613947271</v>
+      <c r="E92" s="8">
+        <v>13357</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -9236,8 +9260,8 @@
       <c r="D93" s="2">
         <v>2.84</v>
       </c>
-      <c r="E93" s="2">
-        <v>100.768465060721</v>
+      <c r="E93" s="9">
+        <v>14261</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -9253,8 +9277,8 @@
       <c r="D94" s="2">
         <v>3.12</v>
       </c>
-      <c r="E94" s="2">
-        <v>101.962970336452</v>
+      <c r="E94" s="8">
+        <v>14468</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9270,8 +9294,8 @@
       <c r="D95" s="2">
         <v>2.95</v>
       </c>
-      <c r="E95" s="2">
-        <v>106.761468672677</v>
+      <c r="E95" s="9">
+        <v>15485</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -9287,8 +9311,8 @@
       <c r="D96" s="2">
         <v>2.86</v>
       </c>
-      <c r="E96" s="2">
-        <v>96.584283723443605</v>
+      <c r="E96" s="8">
+        <v>14394</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9304,8 +9328,8 @@
       <c r="D97" s="2">
         <v>2.94</v>
       </c>
-      <c r="E97" s="2">
-        <v>87.376354483660904</v>
+      <c r="E97" s="9">
+        <v>14605</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9321,8 +9345,8 @@
       <c r="D98" s="2">
         <v>2.95</v>
       </c>
-      <c r="E98" s="2">
-        <v>90.837006911066197</v>
+      <c r="E98" s="8">
+        <v>13329</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -9338,8 +9362,8 @@
       <c r="D99" s="2">
         <v>2.85</v>
       </c>
-      <c r="E99" s="2">
-        <v>89.396774835755494</v>
+      <c r="E99" s="9">
+        <v>13449</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -9355,8 +9379,8 @@
       <c r="D100" s="2">
         <v>2.94</v>
       </c>
-      <c r="E100" s="2">
-        <v>109.78527345638599</v>
+      <c r="E100" s="8">
+        <v>16586</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -9372,8 +9396,8 @@
       <c r="D101" s="2">
         <v>2.88</v>
       </c>
-      <c r="E101" s="2">
-        <v>99.437444896334</v>
+      <c r="E101" s="9">
+        <v>14689</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -9389,8 +9413,8 @@
       <c r="D102" s="2">
         <v>2.73</v>
       </c>
-      <c r="E102" s="2">
-        <v>101.874235658827</v>
+      <c r="E102" s="8">
+        <v>14944</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -9406,8 +9430,8 @@
       <c r="D103" s="2">
         <v>2.61</v>
       </c>
-      <c r="E103" s="2">
-        <v>95.144051648132901</v>
+      <c r="E103" s="9">
+        <v>13949</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -9423,8 +9447,8 @@
       <c r="D104" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="E104" s="2">
-        <v>100.47495805011199</v>
+      <c r="E104" s="8">
+        <v>13585</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -9440,8 +9464,8 @@
       <c r="D105" s="2">
         <v>2.36</v>
       </c>
-      <c r="E105" s="2">
-        <v>94.993885270612296</v>
+      <c r="E105" s="9">
+        <v>14250</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -9457,8 +9481,8 @@
       <c r="D106" s="2">
         <v>2.4</v>
       </c>
-      <c r="E106" s="2">
-        <v>97.178123489092997</v>
+      <c r="E106" s="8">
+        <v>13981</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -9474,8 +9498,8 @@
       <c r="D107" s="2">
         <v>2.21</v>
       </c>
-      <c r="E107" s="2">
-        <v>106.618128039589</v>
+      <c r="E107" s="9">
+        <v>15720</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -9491,8 +9515,8 @@
       <c r="D108" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E108" s="2">
-        <v>91.6629219874292</v>
+      <c r="E108" s="8">
+        <v>14039</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -9508,8 +9532,8 @@
       <c r="D109" s="2">
         <v>1.77</v>
       </c>
-      <c r="E109" s="2">
-        <v>96.918745200648402</v>
+      <c r="E109" s="9">
+        <v>15292</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -9525,8 +9549,8 @@
       <c r="D110" s="2">
         <v>1.45</v>
       </c>
-      <c r="E110" s="2">
-        <v>83.669975256676395</v>
+      <c r="E110" s="8">
+        <v>12147</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9542,8 +9566,8 @@
       <c r="D111" s="2">
         <v>1.39</v>
       </c>
-      <c r="E111" s="2">
-        <v>84.919086487870103</v>
+      <c r="E111" s="9">
+        <v>12403</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -9559,8 +9583,8 @@
       <c r="D112" s="2">
         <v>1.54</v>
       </c>
-      <c r="E112" s="2">
-        <v>112.89098717328901</v>
+      <c r="E112" s="8">
+        <v>17029</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -9576,8 +9600,8 @@
       <c r="D113" s="2">
         <v>1.44</v>
       </c>
-      <c r="E113" s="2">
-        <v>102.5772873354</v>
+      <c r="E113" s="9">
+        <v>15669</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9593,8 +9617,8 @@
       <c r="D114" s="2">
         <v>1.65</v>
       </c>
-      <c r="E114" s="2">
-        <v>98.461363442450406</v>
+      <c r="E114" s="8">
+        <v>14720</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -9610,8 +9634,8 @@
       <c r="D115" s="2">
         <v>1.77</v>
       </c>
-      <c r="E115" s="2">
-        <v>114.242484570974</v>
+      <c r="E115" s="9">
+        <v>16806</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -9627,8 +9651,8 @@
       <c r="D116" s="2">
         <v>1.7</v>
       </c>
-      <c r="E116" s="2">
-        <v>103.799095588863</v>
+      <c r="E116" s="8">
+        <v>14479</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -9644,8 +9668,8 @@
       <c r="D117" s="2">
         <v>1.49</v>
       </c>
-      <c r="E117" s="2">
-        <v>101.778675236768</v>
+      <c r="E117" s="9">
+        <v>15158</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9661,8 +9685,8 @@
       <c r="D118" s="2">
         <v>1.6</v>
       </c>
-      <c r="E118" s="2">
-        <v>98.9596427860414</v>
+      <c r="E118" s="8">
+        <v>14871</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9678,8 +9702,8 @@
       <c r="D119" s="2">
         <v>1.57</v>
       </c>
-      <c r="E119" s="2">
-        <v>103.655754955775</v>
+      <c r="E119" s="9">
+        <v>16089</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9695,8 +9719,8 @@
       <c r="D120" s="2">
         <v>1.63</v>
       </c>
-      <c r="E120" s="2">
-        <v>97.007479878274196</v>
+      <c r="E120" s="8">
+        <v>15632</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9712,8 +9736,8 @@
       <c r="D121" s="2">
         <v>1.55</v>
       </c>
-      <c r="E121" s="2">
-        <v>98.0381672876198</v>
+      <c r="E121" s="9">
+        <v>17543</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -9729,8 +9753,8 @@
       <c r="D122" s="2">
         <v>1.45</v>
       </c>
-      <c r="E122" s="2">
-        <v>83.813315889764198</v>
+      <c r="E122" s="8">
+        <v>12880</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9746,8 +9770,8 @@
       <c r="D123" s="2">
         <v>1.39</v>
       </c>
-      <c r="E123" s="2">
-        <v>92.768692585535106</v>
+      <c r="E123" s="9">
+        <v>14708</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -9763,8 +9787,8 @@
       <c r="D124" s="2">
         <v>1.33</v>
       </c>
-      <c r="E124" s="2">
-        <v>105.21885043087499</v>
+      <c r="E124" s="8">
+        <v>16653</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -9780,8 +9804,8 @@
       <c r="D125" s="2">
         <v>1.3</v>
       </c>
-      <c r="E125" s="2">
-        <v>109.34160006825699</v>
+      <c r="E125" s="9">
+        <v>17237</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -9797,8 +9821,8 @@
       <c r="D126" s="2">
         <v>1.4</v>
       </c>
-      <c r="E126" s="2">
-        <v>100.843548249481</v>
+      <c r="E126" s="8">
+        <v>15459</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9814,8 +9838,8 @@
       <c r="D127" s="2">
         <v>1.17</v>
       </c>
-      <c r="E127" s="2">
-        <v>107.826284804186</v>
+      <c r="E127" s="9">
+        <v>16592</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9831,8 +9855,8 @@
       <c r="D128" s="2">
         <v>0.96</v>
       </c>
-      <c r="E128" s="2">
-        <v>88.427519126304702</v>
+      <c r="E128" s="8">
+        <v>13241</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -9848,8 +9872,8 @@
       <c r="D129" s="2">
         <v>1.07</v>
       </c>
-      <c r="E129" s="2">
-        <v>102.536332868804</v>
+      <c r="E129" s="9">
+        <v>16788</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9865,8 +9889,8 @@
       <c r="D130" s="2">
         <v>1.23</v>
       </c>
-      <c r="E130" s="2">
-        <v>106.481613150934</v>
+      <c r="E130" s="8">
+        <v>16697</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -9882,8 +9906,8 @@
       <c r="D131" s="2">
         <v>1.34</v>
       </c>
-      <c r="E131" s="2">
-        <v>92.1407240977219</v>
+      <c r="E131" s="9">
+        <v>14796</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9899,8 +9923,8 @@
       <c r="D132" s="2">
         <v>1.58</v>
       </c>
-      <c r="E132" s="2">
-        <v>99.696823184778594</v>
+      <c r="E132" s="8">
+        <v>16626</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9916,8 +9940,8 @@
       <c r="D133" s="2">
         <v>1.76</v>
       </c>
-      <c r="E133" s="2">
-        <v>101.785500981201</v>
+      <c r="E133" s="9">
+        <v>18934</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9933,8 +9957,8 @@
       <c r="D134" s="2">
         <v>1.69</v>
       </c>
-      <c r="E134" s="2">
-        <v>100.20875401723499</v>
+      <c r="E134" s="8">
+        <v>14939</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9950,8 +9974,8 @@
       <c r="D135" s="2">
         <v>1.74</v>
       </c>
-      <c r="E135" s="2">
-        <v>91.1851198771366</v>
+      <c r="E135" s="9">
+        <v>14384</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -9967,8 +9991,8 @@
       <c r="D136" s="2">
         <v>1.77</v>
       </c>
-      <c r="E136" s="2">
-        <v>105.915076363016</v>
+      <c r="E136" s="8">
+        <v>16916</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -9984,8 +10008,8 @@
       <c r="D137" s="2">
         <v>1.61</v>
       </c>
-      <c r="E137" s="2">
-        <v>89.717584824094899</v>
+      <c r="E137" s="9">
+        <v>14115</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -10001,8 +10025,8 @@
       <c r="D138" s="2">
         <v>1.59</v>
       </c>
-      <c r="E138" s="2">
-        <v>113.102585250704</v>
+      <c r="E138" s="8">
+        <v>17428</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -10018,8 +10042,8 @@
       <c r="D139" s="2">
         <v>1.53</v>
       </c>
-      <c r="E139" s="2">
-        <v>113.98993202696199</v>
+      <c r="E139" s="9">
+        <v>17475</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -10035,8 +10059,8 @@
       <c r="D140" s="2">
         <v>1.69</v>
       </c>
-      <c r="E140" s="2">
-        <v>94.038281050026995</v>
+      <c r="E140" s="8">
+        <v>13936</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -10052,8 +10076,8 @@
       <c r="D141" s="2">
         <v>1.62</v>
       </c>
-      <c r="E141" s="2">
-        <v>109.355251557123</v>
+      <c r="E141" s="9">
+        <v>17082</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -10069,8 +10093,8 @@
       <c r="D142" s="2">
         <v>1.59</v>
       </c>
-      <c r="E142" s="2">
-        <v>107.655641193368</v>
+      <c r="E142" s="8">
+        <v>16457</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -10086,8 +10110,8 @@
       <c r="D143" s="2">
         <v>1.66</v>
       </c>
-      <c r="E143" s="2">
-        <v>99.963027217655906</v>
+      <c r="E143" s="9">
+        <v>15642</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -10103,8 +10127,8 @@
       <c r="D144" s="2">
         <v>1.59</v>
       </c>
-      <c r="E144" s="2">
-        <v>108.024231392736</v>
+      <c r="E144" s="8">
+        <v>16844</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -10120,8 +10144,8 @@
       <c r="D145" s="2">
         <v>1.57</v>
       </c>
-      <c r="E145" s="2">
-        <v>120.66551008219299</v>
+      <c r="E145" s="9">
+        <v>19270</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -10137,8 +10161,8 @@
       <c r="D146" s="2">
         <v>1.74</v>
       </c>
-      <c r="E146" s="2">
-        <v>73.021813941583005</v>
+      <c r="E146" s="8">
+        <v>11960</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -10154,8 +10178,8 @@
       <c r="D147" s="2">
         <v>1.98</v>
       </c>
-      <c r="E147" s="2">
-        <v>80.536958562043196</v>
+      <c r="E147" s="9">
+        <v>12862</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -10171,8 +10195,8 @@
       <c r="D148" s="2">
         <v>1.99</v>
       </c>
-      <c r="E148" s="2">
-        <v>110.897869798925</v>
+      <c r="E148" s="8">
+        <v>17465</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -10188,8 +10212,8 @@
       <c r="D149" s="2">
         <v>1.93</v>
       </c>
-      <c r="E149" s="2">
-        <v>111.676004664259</v>
+      <c r="E149" s="9">
+        <v>17531</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -10205,8 +10229,8 @@
       <c r="D150" s="2">
         <v>1.89</v>
       </c>
-      <c r="E150" s="2">
-        <v>106.904809305765</v>
+      <c r="E150" s="8">
+        <v>16204</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -10222,8 +10246,8 @@
       <c r="D151" s="2">
         <v>1.82</v>
       </c>
-      <c r="E151" s="2">
-        <v>128.50829043542601</v>
+      <c r="E151" s="9">
+        <v>19283</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -10239,8 +10263,8 @@
       <c r="D152" s="2">
         <v>1.76</v>
       </c>
-      <c r="E152" s="2">
-        <v>82.004493615084897</v>
+      <c r="E152" s="8">
+        <v>11858</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -10256,8 +10280,8 @@
       <c r="D153" s="2">
         <v>1.77</v>
       </c>
-      <c r="E153" s="2">
-        <v>117.901083586929</v>
+      <c r="E153" s="9">
+        <v>18023</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -10273,8 +10297,8 @@
       <c r="D154" s="2">
         <v>1.9</v>
       </c>
-      <c r="E154" s="2">
-        <v>88.598162737123502</v>
+      <c r="E154" s="8">
+        <v>13590</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -10290,8 +10314,8 @@
       <c r="D155" s="2">
         <v>2</v>
       </c>
-      <c r="E155" s="2">
-        <v>94.980233781746804</v>
+      <c r="E155" s="9">
+        <v>15345</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -10307,8 +10331,8 @@
       <c r="D156" s="2">
         <v>1.94</v>
       </c>
-      <c r="E156" s="2">
-        <v>98.4135832314212</v>
+      <c r="E156" s="8">
+        <v>15490</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -10324,8 +10348,8 @@
       <c r="D157" s="2">
         <v>1.83</v>
       </c>
-      <c r="E157" s="2">
-        <v>93.212365973664006</v>
+      <c r="E157" s="9">
+        <v>15522</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -10341,8 +10365,8 @@
       <c r="D158" s="2">
         <v>1.78</v>
       </c>
-      <c r="E158" s="2">
-        <v>71.356332299991493</v>
+      <c r="E158" s="8">
+        <v>11709</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -10358,8 +10382,8 @@
       <c r="D159" s="2">
         <v>1.71</v>
       </c>
-      <c r="E159" s="2">
-        <v>84.837177554677098</v>
+      <c r="E159" s="9">
+        <v>13842</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -10375,8 +10399,8 @@
       <c r="D160" s="2">
         <v>1.66</v>
       </c>
-      <c r="E160" s="2">
-        <v>136.740138221325</v>
+      <c r="E160" s="8">
+        <v>21843</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -10392,8 +10416,8 @@
       <c r="D161" s="2">
         <v>1.71</v>
       </c>
-      <c r="E161" s="2">
-        <v>88.755154859076796</v>
+      <c r="E161" s="9">
+        <v>14798</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -10409,8 +10433,8 @@
       <c r="D162" s="2">
         <v>1.66</v>
       </c>
-      <c r="E162" s="2">
-        <v>104.577230454196</v>
+      <c r="E162" s="8">
+        <v>16692</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10426,8 +10450,8 @@
       <c r="D163" s="2">
         <v>1.43</v>
       </c>
-      <c r="E163" s="2">
-        <v>118.064901453315</v>
+      <c r="E163" s="9">
+        <v>18856</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -10443,8 +10467,8 @@
       <c r="D164" s="2">
         <v>1.44</v>
       </c>
-      <c r="E164" s="2">
-        <v>77.472199311737398</v>
+      <c r="E164" s="8">
+        <v>11836</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -10460,8 +10484,8 @@
       <c r="D165" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E165" s="2">
-        <v>95.853929069139099</v>
+      <c r="E165" s="9">
+        <v>16817</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -10477,8 +10501,8 @@
       <c r="D166" s="2">
         <v>1.21</v>
       </c>
-      <c r="E166" s="2">
-        <v>87.369528739228102</v>
+      <c r="E166" s="8">
+        <v>13813</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -10494,8 +10518,8 @@
       <c r="D167" s="2">
         <v>1.26</v>
       </c>
-      <c r="E167" s="2">
-        <v>81.724638093342094</v>
+      <c r="E167" s="9">
+        <v>13205</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -10511,8 +10535,8 @@
       <c r="D168" s="2">
         <v>1.45</v>
       </c>
-      <c r="E168" s="2">
-        <v>75.731634481385598</v>
+      <c r="E168" s="8">
+        <v>12583</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -10528,8 +10552,8 @@
       <c r="D169" s="2">
         <v>1.47</v>
       </c>
-      <c r="E169" s="2">
-        <v>81.970364892921097</v>
+      <c r="E169" s="9">
+        <v>14088</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -10545,8 +10569,8 @@
       <c r="D170" s="2">
         <v>1.39</v>
       </c>
-      <c r="E170" s="2">
-        <v>71.561104632973993</v>
+      <c r="E170" s="8">
+        <v>12272</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -10562,8 +10586,8 @@
       <c r="D171" s="2">
         <v>1.35</v>
       </c>
-      <c r="E171" s="2">
-        <v>77.519979522766704</v>
+      <c r="E171" s="9">
+        <v>13070</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -10579,8 +10603,8 @@
       <c r="D172" s="2">
         <v>0.93</v>
       </c>
-      <c r="E172" s="2">
-        <v>91.0144762663178</v>
+      <c r="E172" s="8">
+        <v>15193</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -10596,8 +10620,8 @@
       <c r="D173" s="2">
         <v>0.7</v>
       </c>
-      <c r="E173" s="2">
-        <v>56.994966013480798</v>
+      <c r="E173" s="9">
+        <v>9572</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -10613,8 +10637,8 @@
       <c r="D174" s="2">
         <v>0.47</v>
       </c>
-      <c r="E174" s="2">
-        <v>67.547566906515698</v>
+      <c r="E174" s="8">
+        <v>10173</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -10630,8 +10654,8 @@
       <c r="D175" s="2">
         <v>0.65</v>
       </c>
-      <c r="E175" s="2">
-        <v>90.441113733966603</v>
+      <c r="E175" s="9">
+        <v>13994</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -10647,8 +10671,8 @@
       <c r="D176" s="2">
         <v>0.61</v>
       </c>
-      <c r="E176" s="2">
-        <v>80.018201985153993</v>
+      <c r="E176" s="8">
+        <v>11512</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -10664,8 +10688,8 @@
       <c r="D177" s="2">
         <v>0.69</v>
       </c>
-      <c r="E177" s="2">
-        <v>85.676744119905607</v>
+      <c r="E177" s="9">
+        <v>13817</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -10681,8 +10705,8 @@
       <c r="D178" s="2">
         <v>0.65</v>
       </c>
-      <c r="E178" s="2">
-        <v>118.01029549785299</v>
+      <c r="E178" s="8">
+        <v>18594</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -10698,8 +10722,8 @@
       <c r="D179" s="2">
         <v>0.67</v>
       </c>
-      <c r="E179" s="2">
-        <v>98.133727709678396</v>
+      <c r="E179" s="9">
+        <v>15814</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -10715,8 +10739,8 @@
       <c r="D180" s="2">
         <v>0.79</v>
       </c>
-      <c r="E180" s="2">
-        <v>92.952987685219398</v>
+      <c r="E180" s="8">
+        <v>15279</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -10732,8 +10756,8 @@
       <c r="D181" s="2">
         <v>0.91</v>
       </c>
-      <c r="E181" s="2">
-        <v>146.849065726231</v>
+      <c r="E181" s="9">
+        <v>24111</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -10749,8 +10773,8 @@
       <c r="D182" s="2">
         <v>1.01</v>
       </c>
-      <c r="E182" s="2">
-        <v>72.380193964904294</v>
+      <c r="E182" s="8">
+        <v>12601</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -10766,8 +10790,8 @@
       <c r="D183" s="2">
         <v>1.28</v>
       </c>
-      <c r="E183" s="2">
-        <v>81.253661727482196</v>
+      <c r="E183" s="9">
+        <v>13341</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -10783,8 +10807,8 @@
       <c r="D184" s="2">
         <v>1.46</v>
       </c>
-      <c r="E184" s="2">
-        <v>115.532550268764</v>
+      <c r="E184" s="8">
+        <v>18495</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -10800,8 +10824,8 @@
       <c r="D185" s="2">
         <v>1.42</v>
       </c>
-      <c r="E185" s="2">
-        <v>102.70015073518999</v>
+      <c r="E185" s="9">
+        <v>16437</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -10817,8 +10841,8 @@
       <c r="D186" s="2">
         <v>1.47</v>
       </c>
-      <c r="E186" s="2">
-        <v>100.079064873013</v>
+      <c r="E186" s="8">
+        <v>16713</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -10834,8 +10858,8 @@
       <c r="D187" s="2">
         <v>1.47</v>
       </c>
-      <c r="E187" s="2">
-        <v>156.15938113250499</v>
+      <c r="E187" s="9">
+        <v>23577</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -10851,8 +10875,8 @@
       <c r="D188" s="2">
         <v>1.24</v>
       </c>
-      <c r="E188" s="2">
-        <v>87.007764284292193</v>
+      <c r="E188" s="8">
+        <v>12146</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -10868,8 +10892,8 @@
       <c r="D189" s="2">
         <v>1.23</v>
       </c>
-      <c r="E189" s="2">
-        <v>126.665339438583</v>
+      <c r="E189" s="9">
+        <v>19453</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -10885,8 +10909,8 @@
       <c r="D190" s="2">
         <v>1.42</v>
       </c>
-      <c r="E190" s="2">
-        <v>136.07804101134801</v>
+      <c r="E190" s="8">
+        <v>19955</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -10902,8 +10926,8 @@
       <c r="D191" s="2">
         <v>1.68</v>
       </c>
-      <c r="E191" s="2">
-        <v>91.376240721253694</v>
+      <c r="E191" s="9">
+        <v>13767</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -10919,8 +10943,8 @@
       <c r="D192" s="2">
         <v>1.61</v>
       </c>
-      <c r="E192" s="2">
-        <v>110.522453855124</v>
+      <c r="E192" s="8">
+        <v>17490</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -10936,8 +10960,8 @@
       <c r="D193" s="2">
         <v>1.54</v>
       </c>
-      <c r="E193" s="2">
-        <v>143.163163732545</v>
+      <c r="E193" s="9">
+        <v>23918</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -10953,8 +10977,8 @@
       <c r="D194" s="2">
         <v>1.86</v>
       </c>
-      <c r="E194" s="2">
-        <v>61.615994994454098</v>
+      <c r="E194" s="8">
+        <v>9414</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -10970,8 +10994,8 @@
       <c r="D195" s="2">
         <v>2.11</v>
       </c>
-      <c r="E195" s="2">
-        <v>63.383862802536903</v>
+      <c r="E195" s="9">
+        <v>10059</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -10987,8 +11011,8 @@
       <c r="D196" s="2">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E196" s="2">
-        <v>121.880492591223</v>
+      <c r="E196" s="8">
+        <v>18647</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -11004,8 +11028,8 @@
       <c r="D197" s="2">
         <v>2.72</v>
       </c>
-      <c r="E197" s="2">
-        <v>78.441455021188204</v>
+      <c r="E197" s="9">
+        <v>11564</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -11021,8 +11045,8 @@
       <c r="D198" s="2">
         <v>2.77</v>
       </c>
-      <c r="E198" s="2">
-        <v>92.236284519780398</v>
+      <c r="E198" s="8">
+        <v>13605</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -11038,8 +11062,8 @@
       <c r="D199" s="2">
         <v>3.03</v>
       </c>
-      <c r="E199" s="2">
-        <v>115.51207303546499</v>
+      <c r="E199" s="9">
+        <v>17433</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -11055,8 +11079,8 @@
       <c r="D200" s="2">
         <v>2.89</v>
       </c>
-      <c r="E200" s="2">
-        <v>58.878871476920501</v>
+      <c r="E200" s="8">
+        <v>8667</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -11072,8 +11096,8 @@
       <c r="D201" s="2">
         <v>2.99</v>
       </c>
-      <c r="E201" s="2">
-        <v>94.243053383009595</v>
+      <c r="E201" s="9">
+        <v>15512</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -11089,8 +11113,8 @@
       <c r="D202" s="2">
         <v>3.34</v>
       </c>
-      <c r="E202" s="2">
-        <v>109.443986234749</v>
+      <c r="E202" s="8">
+        <v>17369</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -11106,8 +11130,8 @@
       <c r="D203" s="2">
         <v>3.54</v>
       </c>
-      <c r="E203" s="2">
-        <v>94.714029748869507</v>
+      <c r="E203" s="9">
+        <v>14825</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -11123,8 +11147,8 @@
       <c r="D204" s="2">
         <v>3.24</v>
       </c>
-      <c r="E204" s="2">
-        <v>142.34407440061401</v>
+      <c r="E204" s="8">
+        <v>21899</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -11140,8 +11164,8 @@
       <c r="D205" s="2">
         <v>3.03</v>
       </c>
-      <c r="E205" s="2">
-        <v>292.96777679815699</v>
+      <c r="E205" s="9">
+        <v>43371</v>
       </c>
     </row>
   </sheetData>
@@ -11154,8 +11178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4979B8-8E78-4F81-A67F-19EFCDD356A6}">
   <dimension ref="A1:E817"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11197,8 +11221,8 @@
       <c r="D2" s="2">
         <v>3.32</v>
       </c>
-      <c r="E2" s="2">
-        <v>63.568847186764401</v>
+      <c r="E2" s="8">
+        <v>19595</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11214,8 +11238,8 @@
       <c r="D3" s="2">
         <v>3.42</v>
       </c>
-      <c r="E3" s="2">
-        <v>67.391664732601697</v>
+      <c r="E3" s="9">
+        <v>21339</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11231,8 +11255,8 @@
       <c r="D4" s="2">
         <v>3.55</v>
       </c>
-      <c r="E4" s="2">
-        <v>92.858326978548405</v>
+      <c r="E4" s="8">
+        <v>29154</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11248,8 +11272,8 @@
       <c r="D5" s="2">
         <v>3.84</v>
       </c>
-      <c r="E5" s="2">
-        <v>95.325088690693306</v>
+      <c r="E5" s="9">
+        <v>29236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11265,8 +11289,8 @@
       <c r="D6" s="2">
         <v>3.89</v>
       </c>
-      <c r="E6" s="2">
-        <v>107.94071814595</v>
+      <c r="E6" s="8">
+        <v>32694</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11282,8 +11306,8 @@
       <c r="D7" s="2">
         <v>3.93</v>
       </c>
-      <c r="E7" s="2">
-        <v>104.976625443453</v>
+      <c r="E7" s="9">
+        <v>31886</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -11299,8 +11323,8 @@
       <c r="D8" s="2">
         <v>3.96</v>
       </c>
-      <c r="E8" s="2">
-        <v>72.248930738370802</v>
+      <c r="E8" s="8">
+        <v>20950</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11316,8 +11340,8 @@
       <c r="D9" s="2">
         <v>3.84</v>
       </c>
-      <c r="E9" s="2">
-        <v>81.817578992739001</v>
+      <c r="E9" s="9">
+        <v>25461</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11333,8 +11357,8 @@
       <c r="D10" s="2">
         <v>3.7</v>
       </c>
-      <c r="E10" s="2">
-        <v>90.321938927754402</v>
+      <c r="E10" s="8">
+        <v>27905</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -11350,8 +11374,8 @@
       <c r="D11" s="2">
         <v>3.73</v>
       </c>
-      <c r="E11" s="2">
-        <v>88.843208116441801</v>
+      <c r="E11" s="9">
+        <v>27713</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -11367,8 +11391,8 @@
       <c r="D12" s="2">
         <v>3.62</v>
       </c>
-      <c r="E12" s="2">
-        <v>90.079904512449801</v>
+      <c r="E12" s="8">
+        <v>28036</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -11384,8 +11408,8 @@
       <c r="D13" s="2">
         <v>3.65</v>
       </c>
-      <c r="E13" s="2">
-        <v>85.116541228739095</v>
+      <c r="E13" s="9">
+        <v>28195</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -11401,8 +11425,8 @@
       <c r="D14" s="2">
         <v>3.9</v>
       </c>
-      <c r="E14" s="2">
-        <v>75.809820629289504</v>
+      <c r="E14" s="8">
+        <v>23588</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -11418,8 +11442,8 @@
       <c r="D15" s="2">
         <v>3.93</v>
       </c>
-      <c r="E15" s="2">
-        <v>74.503497894632105</v>
+      <c r="E15" s="9">
+        <v>23447</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -11435,8 +11459,8 @@
       <c r="D16" s="2">
         <v>3.79</v>
       </c>
-      <c r="E16" s="2">
-        <v>101.452206491827</v>
+      <c r="E16" s="8">
+        <v>31470</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -11452,8 +11476,8 @@
       <c r="D17" s="2">
         <v>4.04</v>
       </c>
-      <c r="E17" s="2">
-        <v>101.233380856072</v>
+      <c r="E17" s="9">
+        <v>30747</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -11469,8 +11493,8 @@
       <c r="D18" s="2">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E18" s="2">
-        <v>111.156791883558</v>
+      <c r="E18" s="8">
+        <v>34274</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -11486,8 +11510,8 @@
       <c r="D19" s="2">
         <v>4.4400000000000004</v>
       </c>
-      <c r="E19" s="2">
-        <v>100.89188024269799</v>
+      <c r="E19" s="9">
+        <v>30318</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -11503,8 +11527,8 @@
       <c r="D20" s="2">
         <v>4.45</v>
       </c>
-      <c r="E20" s="2">
-        <v>77.580318954941802</v>
+      <c r="E20" s="8">
+        <v>22967</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -11520,8 +11544,8 @@
       <c r="D21" s="2">
         <v>4.25</v>
       </c>
-      <c r="E21" s="2">
-        <v>86.412917343589399</v>
+      <c r="E21" s="9">
+        <v>26502</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -11537,8 +11561,8 @@
       <c r="D22" s="2">
         <v>4.22</v>
       </c>
-      <c r="E22" s="2">
-        <v>86.820728755677905</v>
+      <c r="E22" s="8">
+        <v>27552</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -11554,8 +11578,8 @@
       <c r="D23" s="2">
         <v>4.3099999999999996</v>
       </c>
-      <c r="E23" s="2">
-        <v>103.82613308577299</v>
+      <c r="E23" s="9">
+        <v>32927</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -11571,8 +11595,8 @@
       <c r="D24" s="2">
         <v>4.22</v>
       </c>
-      <c r="E24" s="2">
-        <v>98.408540830874301</v>
+      <c r="E24" s="8">
+        <v>31783</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -11588,8 +11612,8 @@
       <c r="D25" s="2">
         <v>4.3099999999999996</v>
       </c>
-      <c r="E25" s="2">
-        <v>104.340041775803</v>
+      <c r="E25" s="9">
+        <v>34856</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -11605,8 +11629,8 @@
       <c r="D26" s="2">
         <v>4.08</v>
       </c>
-      <c r="E26" s="2">
-        <v>64.132488975829702</v>
+      <c r="E26" s="8">
+        <v>19762</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -11622,8 +11646,8 @@
       <c r="D27" s="2">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E27" s="2">
-        <v>75.919233447166903</v>
+      <c r="E27" s="9">
+        <v>24764</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -11639,8 +11663,8 @@
       <c r="D28" s="2">
         <v>3.92</v>
       </c>
-      <c r="E28" s="2">
-        <v>82.822187593249595</v>
+      <c r="E28" s="8">
+        <v>26948</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -11656,8 +11680,8 @@
       <c r="D29" s="2">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E29" s="2">
-        <v>100.12267497761999</v>
+      <c r="E29" s="9">
+        <v>31729</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -11673,8 +11697,8 @@
       <c r="D30" s="2">
         <v>4.18</v>
       </c>
-      <c r="E30" s="2">
-        <v>96.578362786379799</v>
+      <c r="E30" s="8">
+        <v>30272</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -11690,8 +11714,8 @@
       <c r="D31" s="2">
         <v>4.43</v>
       </c>
-      <c r="E31" s="2">
-        <v>86.346606544875797</v>
+      <c r="E31" s="9">
+        <v>27361</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -11707,8 +11731,8 @@
       <c r="D32" s="2">
         <v>4.37</v>
       </c>
-      <c r="E32" s="2">
-        <v>63.668313384834697</v>
+      <c r="E32" s="8">
+        <v>19326</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -11724,8 +11748,8 @@
       <c r="D33" s="2">
         <v>4.1100000000000003</v>
       </c>
-      <c r="E33" s="2">
-        <v>65.820098803090104</v>
+      <c r="E33" s="9">
+        <v>20844</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -11741,8 +11765,8 @@
       <c r="D34" s="2">
         <v>3.9</v>
       </c>
-      <c r="E34" s="2">
-        <v>81.675010775504802</v>
+      <c r="E34" s="8">
+        <v>26052</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -11758,8 +11782,8 @@
       <c r="D35" s="2">
         <v>3.57</v>
       </c>
-      <c r="E35" s="2">
-        <v>79.128676104903704</v>
+      <c r="E35" s="9">
+        <v>25558</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -11775,8 +11799,8 @@
       <c r="D36" s="2">
         <v>3.34</v>
       </c>
-      <c r="E36" s="2">
-        <v>60.594807864460698</v>
+      <c r="E36" s="8">
+        <v>20400</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -11792,8 +11816,8 @@
       <c r="D37" s="2">
         <v>2.67</v>
       </c>
-      <c r="E37" s="2">
-        <v>59.421106727230502</v>
+      <c r="E37" s="9">
+        <v>20141</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -11809,8 +11833,8 @@
       <c r="D38" s="2">
         <v>2.8</v>
       </c>
-      <c r="E38" s="2">
-        <v>41.016544544279</v>
+      <c r="E38" s="8">
+        <v>12945</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -11826,8 +11850,8 @@
       <c r="D39" s="2">
         <v>2.93</v>
       </c>
-      <c r="E39" s="2">
-        <v>51.417393322502598</v>
+      <c r="E39" s="9">
+        <v>16609</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -11843,8 +11867,8 @@
       <c r="D40" s="2">
         <v>2.94</v>
       </c>
-      <c r="E40" s="2">
-        <v>63.741255263419603</v>
+      <c r="E40" s="8">
+        <v>20794</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -11860,8 +11884,8 @@
       <c r="D41" s="2">
         <v>3.18</v>
       </c>
-      <c r="E41" s="2">
-        <v>66.254434534664</v>
+      <c r="E41" s="9">
+        <v>20531</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -11877,8 +11901,8 @@
       <c r="D42" s="2">
         <v>3.57</v>
       </c>
-      <c r="E42" s="2">
-        <v>65.5150691290076</v>
+      <c r="E42" s="8">
+        <v>20417</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -11894,8 +11918,8 @@
       <c r="D43" s="2">
         <v>3.62</v>
       </c>
-      <c r="E43" s="2">
-        <v>80.040449587215306</v>
+      <c r="E43" s="9">
+        <v>24964</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -11911,8 +11935,8 @@
       <c r="D44" s="2">
         <v>3.37</v>
       </c>
-      <c r="E44" s="2">
-        <v>52.760186996452397</v>
+      <c r="E44" s="8">
+        <v>16120</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -11928,8 +11952,8 @@
       <c r="D45" s="2">
         <v>3.45</v>
       </c>
-      <c r="E45" s="2">
-        <v>55.445774344352003</v>
+      <c r="E45" s="9">
+        <v>17518</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -11945,8 +11969,8 @@
       <c r="D46" s="2">
         <v>3.38</v>
       </c>
-      <c r="E46" s="2">
-        <v>68.940021882563599</v>
+      <c r="E46" s="8">
+        <v>21815</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -11962,8 +11986,8 @@
       <c r="D47" s="2">
         <v>3.25</v>
       </c>
-      <c r="E47" s="2">
-        <v>75.630781472762806</v>
+      <c r="E47" s="9">
+        <v>24055</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -11979,8 +12003,8 @@
       <c r="D48" s="2">
         <v>3.27</v>
       </c>
-      <c r="E48" s="2">
-        <v>70.239713537349601</v>
+      <c r="E48" s="8">
+        <v>22805</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -11996,8 +12020,8 @@
       <c r="D49" s="2">
         <v>3.24</v>
       </c>
-      <c r="E49" s="2">
-        <v>66.692085806173495</v>
+      <c r="E49" s="9">
+        <v>22245</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -12013,8 +12037,8 @@
       <c r="D50" s="2">
         <v>3.37</v>
       </c>
-      <c r="E50" s="2">
-        <v>54.215709028215201</v>
+      <c r="E50" s="8">
+        <v>17542</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -12030,8 +12054,8 @@
       <c r="D51" s="2">
         <v>3.28</v>
       </c>
-      <c r="E51" s="2">
-        <v>62.670335864195501</v>
+      <c r="E51" s="9">
+        <v>20396</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -12047,8 +12071,8 @@
       <c r="D52" s="2">
         <v>3.2</v>
       </c>
-      <c r="E52" s="2">
-        <v>90.617021982029797</v>
+      <c r="E52" s="8">
+        <v>28917</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -12064,8 +12088,8 @@
       <c r="D53" s="2">
         <v>3.14</v>
       </c>
-      <c r="E53" s="2">
-        <v>92.075859553728293</v>
+      <c r="E53" s="9">
+        <v>28923</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -12081,8 +12105,8 @@
       <c r="D54" s="2">
         <v>2.73</v>
       </c>
-      <c r="E54" s="2">
-        <v>90.431351745631801</v>
+      <c r="E54" s="8">
+        <v>28360</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -12098,8 +12122,8 @@
       <c r="D55" s="2">
         <v>2.61</v>
       </c>
-      <c r="E55" s="2">
-        <v>102.91104406352601</v>
+      <c r="E55" s="9">
+        <v>31802</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -12115,8 +12139,8 @@
       <c r="D56" s="2">
         <v>2.7</v>
       </c>
-      <c r="E56" s="2">
-        <v>72.958456284605901</v>
+      <c r="E56" s="8">
+        <v>22563</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -12132,8 +12156,8 @@
       <c r="D57" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E57" s="2">
-        <v>79.818308411524796</v>
+      <c r="E57" s="9">
+        <v>25387</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -12149,8 +12173,8 @@
       <c r="D58" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E58" s="2">
-        <v>91.419382646464001</v>
+      <c r="E58" s="8">
+        <v>29782</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -12166,8 +12190,8 @@
       <c r="D59" s="2">
         <v>2.64</v>
       </c>
-      <c r="E59" s="2">
-        <v>91.923344716687097</v>
+      <c r="E59" s="9">
+        <v>29786</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -12183,8 +12207,8 @@
       <c r="D60" s="2">
         <v>2.86</v>
       </c>
-      <c r="E60" s="2">
-        <v>93.110308013660003</v>
+      <c r="E60" s="8">
+        <v>30251</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -12200,8 +12224,8 @@
       <c r="D61" s="2">
         <v>3.21</v>
       </c>
-      <c r="E61" s="2">
-        <v>101.468784191506</v>
+      <c r="E61" s="9">
+        <v>33877</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -12217,8 +12241,8 @@
       <c r="D62" s="2">
         <v>3.28</v>
       </c>
-      <c r="E62" s="2">
-        <v>67.812738304432898</v>
+      <c r="E62" s="8">
+        <v>22014</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -12234,8 +12258,8 @@
       <c r="D63" s="2">
         <v>3.41</v>
       </c>
-      <c r="E63" s="2">
-        <v>73.651404131162806</v>
+      <c r="E63" s="9">
+        <v>24478</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -12251,8 +12275,8 @@
       <c r="D64" s="2">
         <v>3.35</v>
       </c>
-      <c r="E64" s="2">
-        <v>104.91031464474</v>
+      <c r="E64" s="8">
+        <v>33756</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -12268,8 +12292,8 @@
       <c r="D65" s="2">
         <v>3.3</v>
       </c>
-      <c r="E65" s="2">
-        <v>103.219389277544</v>
+      <c r="E65" s="9">
+        <v>32746</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -12285,8 +12309,8 @@
       <c r="D66" s="2">
         <v>3.01</v>
       </c>
-      <c r="E66" s="2">
-        <v>110.95785948741801</v>
+      <c r="E66" s="8">
+        <v>35644</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -12302,8 +12326,8 @@
       <c r="D67" s="2">
         <v>2.89</v>
       </c>
-      <c r="E67" s="2">
-        <v>99.622028447332596</v>
+      <c r="E67" s="9">
+        <v>31231</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -12319,8 +12343,8 @@
       <c r="D68" s="2">
         <v>2.75</v>
       </c>
-      <c r="E68" s="2">
-        <v>71.565929511620993</v>
+      <c r="E68" s="8">
+        <v>22001</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -12336,8 +12360,8 @@
       <c r="D69" s="2">
         <v>2.17</v>
       </c>
-      <c r="E69" s="2">
-        <v>87.337952985643696</v>
+      <c r="E69" s="9">
+        <v>28408</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -12353,8 +12377,8 @@
       <c r="D70" s="2">
         <v>1.83</v>
       </c>
-      <c r="E70" s="2">
-        <v>94.522728026259102</v>
+      <c r="E70" s="8">
+        <v>30793</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -12370,8 +12394,8 @@
       <c r="D71" s="2">
         <v>1.9</v>
       </c>
-      <c r="E71" s="2">
-        <v>88.345877126090002</v>
+      <c r="E71" s="9">
+        <v>29213</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -12387,8 +12411,8 @@
       <c r="D72" s="2">
         <v>1.69</v>
       </c>
-      <c r="E72" s="2">
-        <v>93.683896422532399</v>
+      <c r="E72" s="8">
+        <v>30939</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -12404,8 +12428,8 @@
       <c r="D73" s="2">
         <v>1.68</v>
       </c>
-      <c r="E73" s="2">
-        <v>87.387686084678904</v>
+      <c r="E73" s="9">
+        <v>29772</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -12421,8 +12445,8 @@
       <c r="D74" s="2">
         <v>1.7</v>
       </c>
-      <c r="E74" s="2">
-        <v>66.009084579423799</v>
+      <c r="E74" s="8">
+        <v>21350</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -12438,8 +12462,8 @@
       <c r="D75" s="2">
         <v>1.89</v>
       </c>
-      <c r="E75" s="2">
-        <v>73.008189383641096</v>
+      <c r="E75" s="9">
+        <v>23680</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -12455,8 +12479,8 @@
       <c r="D76" s="2">
         <v>1.95</v>
       </c>
-      <c r="E76" s="2">
-        <v>100.911773482312</v>
+      <c r="E76" s="8">
+        <v>32409</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -12472,8 +12496,8 @@
       <c r="D77" s="2">
         <v>1.82</v>
       </c>
-      <c r="E77" s="2">
-        <v>84.184874506813401</v>
+      <c r="E77" s="9">
+        <v>27050</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -12489,8 +12513,8 @@
       <c r="D78" s="2">
         <v>1.51</v>
       </c>
-      <c r="E78" s="2">
-        <v>94.479626007095206</v>
+      <c r="E78" s="8">
+        <v>29465</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -12506,8 +12530,8 @@
       <c r="D79" s="2">
         <v>1.45</v>
       </c>
-      <c r="E79" s="2">
-        <v>92.0592818540499</v>
+      <c r="E79" s="9">
+        <v>28924</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -12523,8 +12547,8 @@
       <c r="D80" s="2">
         <v>1.33</v>
       </c>
-      <c r="E80" s="2">
-        <v>67.249096515367498</v>
+      <c r="E80" s="8">
+        <v>20273</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -12540,8 +12564,8 @@
       <c r="D81" s="2">
         <v>1.44</v>
       </c>
-      <c r="E81" s="2">
-        <v>76.204369881635202</v>
+      <c r="E81" s="9">
+        <v>24296</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -12557,8 +12581,8 @@
       <c r="D82" s="2">
         <v>1.51</v>
       </c>
-      <c r="E82" s="2">
-        <v>79.612744935512794</v>
+      <c r="E82" s="8">
+        <v>25173</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -12574,8 +12598,8 @@
       <c r="D83" s="2">
         <v>1.54</v>
       </c>
-      <c r="E83" s="2">
-        <v>85.550876960313005</v>
+      <c r="E83" s="9">
+        <v>27668</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -12591,8 +12615,8 @@
       <c r="D84" s="2">
         <v>1.46</v>
       </c>
-      <c r="E84" s="2">
-        <v>88.687377739464907</v>
+      <c r="E84" s="8">
+        <v>28464</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -12608,8 +12632,8 @@
       <c r="D85" s="2">
         <v>1.51</v>
       </c>
-      <c r="E85" s="2">
-        <v>91.130930672059904</v>
+      <c r="E85" s="9">
+        <v>30448</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -12625,8 +12649,8 @@
       <c r="D86" s="2">
         <v>1.8</v>
       </c>
-      <c r="E86" s="2">
-        <v>57.962269155531999</v>
+      <c r="E86" s="8">
+        <v>18303</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -12642,8 +12666,8 @@
       <c r="D87" s="2">
         <v>2</v>
       </c>
-      <c r="E87" s="2">
-        <v>63.469380988693999</v>
+      <c r="E87" s="9">
+        <v>20684</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -12659,8 +12683,8 @@
       <c r="D88" s="2">
         <v>1.92</v>
       </c>
-      <c r="E88" s="2">
-        <v>80.007294187858506</v>
+      <c r="E88" s="8">
+        <v>25883</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -12676,8 +12700,8 @@
       <c r="D89" s="2">
         <v>1.66</v>
       </c>
-      <c r="E89" s="2">
-        <v>88.332614966347293</v>
+      <c r="E89" s="9">
+        <v>27416</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -12693,8 +12717,8 @@
       <c r="D90" s="2">
         <v>1.79</v>
       </c>
-      <c r="E90" s="2">
-        <v>94.741553662013899</v>
+      <c r="E90" s="8">
+        <v>28965</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -12710,8 +12734,8 @@
       <c r="D91" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E91" s="2">
-        <v>83.846689433374195</v>
+      <c r="E91" s="9">
+        <v>25957</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -12727,8 +12751,8 @@
       <c r="D92" s="2">
         <v>2.16</v>
       </c>
-      <c r="E92" s="2">
-        <v>68.300122674977601</v>
+      <c r="E92" s="8">
+        <v>20250</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -12744,8 +12768,8 @@
       <c r="D93" s="2">
         <v>2.34</v>
       </c>
-      <c r="E93" s="2">
-        <v>78.933059248698598</v>
+      <c r="E93" s="9">
+        <v>24737</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -12761,8 +12785,8 @@
       <c r="D94" s="2">
         <v>2.6</v>
       </c>
-      <c r="E94" s="2">
-        <v>85.962003912337096</v>
+      <c r="E94" s="8">
+        <v>27855</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -12778,8 +12802,8 @@
       <c r="D95" s="2">
         <v>2.44</v>
       </c>
-      <c r="E95" s="2">
-        <v>89.854447796823706</v>
+      <c r="E95" s="9">
+        <v>28641</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -12795,8 +12819,8 @@
       <c r="D96" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E96" s="2">
-        <v>86.983190212526097</v>
+      <c r="E96" s="8">
+        <v>27963</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -12812,8 +12836,8 @@
       <c r="D97" s="2">
         <v>2.39</v>
       </c>
-      <c r="E97" s="2">
-        <v>90.335201087497097</v>
+      <c r="E97" s="9">
+        <v>30287</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -12829,8 +12853,8 @@
       <c r="D98" s="2">
         <v>2.37</v>
       </c>
-      <c r="E98" s="2">
-        <v>67.418189052087101</v>
+      <c r="E98" s="8">
+        <v>21485</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -12846,8 +12870,8 @@
       <c r="D99" s="2">
         <v>2.23</v>
       </c>
-      <c r="E99" s="2">
-        <v>75.100295083054306</v>
+      <c r="E99" s="9">
+        <v>24675</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -12863,8 +12887,8 @@
       <c r="D100" s="2">
         <v>2.16</v>
       </c>
-      <c r="E100" s="2">
-        <v>97.874738901230103</v>
+      <c r="E100" s="8">
+        <v>31734</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -12880,8 +12904,8 @@
       <c r="D101" s="2">
         <v>2.06</v>
       </c>
-      <c r="E101" s="2">
-        <v>99.191008255694399</v>
+      <c r="E101" s="9">
+        <v>31227</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -12897,8 +12921,8 @@
       <c r="D102" s="2">
         <v>1.88</v>
       </c>
-      <c r="E102" s="2">
-        <v>99.157852856337598</v>
+      <c r="E102" s="8">
+        <v>31219</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -12914,8 +12938,8 @@
       <c r="D103" s="2">
         <v>1.8</v>
       </c>
-      <c r="E103" s="2">
-        <v>102.261198236133</v>
+      <c r="E103" s="9">
+        <v>32253</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -12931,8 +12955,8 @@
       <c r="D104" s="2">
         <v>1.6</v>
       </c>
-      <c r="E104" s="2">
-        <v>75.564470674049304</v>
+      <c r="E104" s="8">
+        <v>22892</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -12948,8 +12972,8 @@
       <c r="D105" s="2">
         <v>1.58</v>
       </c>
-      <c r="E105" s="2">
-        <v>84.894400053048599</v>
+      <c r="E105" s="9">
+        <v>27230</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -12965,8 +12989,8 @@
       <c r="D106" s="2">
         <v>1.51</v>
       </c>
-      <c r="E106" s="2">
-        <v>92.109014953085094</v>
+      <c r="E106" s="8">
+        <v>30282</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -12982,8 +13006,8 @@
       <c r="D107" s="2">
         <v>1.3</v>
       </c>
-      <c r="E107" s="2">
-        <v>98.120088856470304</v>
+      <c r="E107" s="9">
+        <v>31905</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -12999,8 +13023,8 @@
       <c r="D108" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E108" s="2">
-        <v>89.546102582805602</v>
+      <c r="E108" s="8">
+        <v>29467</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -13016,8 +13040,8 @@
       <c r="D109" s="2">
         <v>1.01</v>
       </c>
-      <c r="E109" s="2">
-        <v>93.120254633467098</v>
+      <c r="E109" s="9">
+        <v>31475</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -13033,8 +13057,8 @@
       <c r="D110" s="2">
         <v>0.78</v>
       </c>
-      <c r="E110" s="2">
-        <v>70.617685090016906</v>
+      <c r="E110" s="8">
+        <v>22942</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -13050,8 +13074,8 @@
       <c r="D111" s="2">
         <v>0.62</v>
       </c>
-      <c r="E111" s="2">
-        <v>82.381220781804302</v>
+      <c r="E111" s="9">
+        <v>27176</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -13067,8 +13091,8 @@
       <c r="D112" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E112" s="2">
-        <v>111.13026756407299</v>
+      <c r="E112" s="8">
+        <v>36274</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -13084,8 +13108,8 @@
       <c r="D113" s="2">
         <v>0.34</v>
       </c>
-      <c r="E113" s="2">
-        <v>106.25310831869</v>
+      <c r="E113" s="9">
+        <v>34451</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -13101,8 +13125,8 @@
       <c r="D114" s="2">
         <v>0.75</v>
       </c>
-      <c r="E114" s="2">
-        <v>103.89244388448699</v>
+      <c r="E114" s="8">
+        <v>33445</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -13118,8 +13142,8 @@
       <c r="D115" s="2">
         <v>0.99</v>
       </c>
-      <c r="E115" s="2">
-        <v>114.10099134644101</v>
+      <c r="E115" s="9">
+        <v>36439</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -13135,8 +13159,8 @@
       <c r="D116" s="2">
         <v>0.81</v>
       </c>
-      <c r="E116" s="2">
-        <v>87.006398992075901</v>
+      <c r="E116" s="8">
+        <v>26782</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -13152,8 +13176,8 @@
       <c r="D117" s="2">
         <v>0.66</v>
       </c>
-      <c r="E117" s="2">
-        <v>92.241636550512197</v>
+      <c r="E117" s="9">
+        <v>29902</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -13169,8 +13193,8 @@
       <c r="D118" s="2">
         <v>0.71</v>
       </c>
-      <c r="E118" s="2">
-        <v>102.983985942111</v>
+      <c r="E118" s="8">
+        <v>34056</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -13186,8 +13210,8 @@
       <c r="D119" s="2">
         <v>0.66</v>
       </c>
-      <c r="E119" s="2">
-        <v>108.335267398296</v>
+      <c r="E119" s="9">
+        <v>35523</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -13203,8 +13227,8 @@
       <c r="D120" s="2">
         <v>0.8</v>
       </c>
-      <c r="E120" s="2">
-        <v>107.35718311727101</v>
+      <c r="E120" s="8">
+        <v>35239</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -13220,8 +13244,8 @@
       <c r="D121" s="2">
         <v>0.93</v>
       </c>
-      <c r="E121" s="2">
-        <v>113.699811014224</v>
+      <c r="E121" s="9">
+        <v>37730</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -13237,8 +13261,8 @@
       <c r="D122" s="2">
         <v>0.77</v>
       </c>
-      <c r="E122" s="2">
-        <v>74.211730380292394</v>
+      <c r="E122" s="8">
+        <v>24468</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -13254,8 +13278,8 @@
       <c r="D123" s="2">
         <v>0.77</v>
       </c>
-      <c r="E123" s="2">
-        <v>92.855011438612806</v>
+      <c r="E123" s="9">
+        <v>31253</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -13271,8 +13295,8 @@
       <c r="D124" s="2">
         <v>0.82</v>
       </c>
-      <c r="E124" s="2">
-        <v>119.548423460761</v>
+      <c r="E124" s="8">
+        <v>39444</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -13288,8 +13312,8 @@
       <c r="D125" s="2">
         <v>0.81</v>
       </c>
-      <c r="E125" s="2">
-        <v>116.85620503299</v>
+      <c r="E125" s="9">
+        <v>38196</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -13305,8 +13329,8 @@
       <c r="D126" s="2">
         <v>0.77</v>
       </c>
-      <c r="E126" s="2">
-        <v>121.381917045191</v>
+      <c r="E126" s="8">
+        <v>38965</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -13322,8 +13346,8 @@
       <c r="D127" s="2">
         <v>0.52</v>
       </c>
-      <c r="E127" s="2">
-        <v>126.77630052054</v>
+      <c r="E127" s="9">
+        <v>40973</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -13339,8 +13363,8 @@
       <c r="D128" s="2">
         <v>0.17</v>
       </c>
-      <c r="E128" s="2">
-        <v>85.043599350154196</v>
+      <c r="E128" s="8">
+        <v>26787</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -13356,8 +13380,8 @@
       <c r="D129" s="2">
         <v>0.1</v>
       </c>
-      <c r="E129" s="2">
-        <v>95.524021086833997</v>
+      <c r="E129" s="9">
+        <v>32700</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -13373,8 +13397,8 @@
       <c r="D130" s="2">
         <v>0.22</v>
       </c>
-      <c r="E130" s="2">
-        <v>111.302675640728</v>
+      <c r="E130" s="8">
+        <v>36859</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -13390,8 +13414,8 @@
       <c r="D131" s="2">
         <v>0.24</v>
       </c>
-      <c r="E131" s="2">
-        <v>110.06929478465599</v>
+      <c r="E131" s="9">
+        <v>36182</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -13407,8 +13431,8 @@
       <c r="D132" s="2">
         <v>0.43</v>
       </c>
-      <c r="E132" s="2">
-        <v>107.410231756242</v>
+      <c r="E132" s="8">
+        <v>35983</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -13424,8 +13448,8 @@
       <c r="D133" s="2">
         <v>0.61</v>
       </c>
-      <c r="E133" s="2">
-        <v>125.49650210536799</v>
+      <c r="E133" s="9">
+        <v>42196</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -13441,8 +13465,8 @@
       <c r="D134" s="2">
         <v>0.65</v>
       </c>
-      <c r="E134" s="2">
-        <v>79.7022645137761</v>
+      <c r="E134" s="8">
+        <v>26988</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -13458,8 +13482,8 @@
       <c r="D135" s="2">
         <v>0.66</v>
       </c>
-      <c r="E135" s="2">
-        <v>94.439839527867093</v>
+      <c r="E135" s="9">
+        <v>31731</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -13475,8 +13499,8 @@
       <c r="D136" s="2">
         <v>0.69</v>
       </c>
-      <c r="E136" s="2">
-        <v>130.884254500845</v>
+      <c r="E136" s="8">
+        <v>43966</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -13492,8 +13516,8 @@
       <c r="D137" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E137" s="2">
-        <v>105.57010709194</v>
+      <c r="E137" s="9">
+        <v>34726</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -13509,8 +13533,8 @@
       <c r="D138" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E138" s="2">
-        <v>123.17562415039301</v>
+      <c r="E138" s="8">
+        <v>40322</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -13526,8 +13550,8 @@
       <c r="D139" s="2">
         <v>0.46</v>
       </c>
-      <c r="E139" s="2">
-        <v>132.22704817479499</v>
+      <c r="E139" s="9">
+        <v>43912</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -13543,8 +13567,8 @@
       <c r="D140" s="2">
         <v>0.66</v>
       </c>
-      <c r="E140" s="2">
-        <v>86.747786877092906</v>
+      <c r="E140" s="8">
+        <v>27318</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -13560,8 +13584,8 @@
       <c r="D141" s="2">
         <v>0.63</v>
       </c>
-      <c r="E141" s="2">
-        <v>104.018434402042</v>
+      <c r="E141" s="9">
+        <v>34476</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -13577,8 +13601,8 @@
       <c r="D142" s="2">
         <v>0.62</v>
       </c>
-      <c r="E142" s="2">
-        <v>107.897616126786</v>
+      <c r="E142" s="8">
+        <v>36130</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -13594,8 +13618,8 @@
       <c r="D143" s="2">
         <v>0.88</v>
       </c>
-      <c r="E143" s="2">
-        <v>110.162129902855</v>
+      <c r="E143" s="9">
+        <v>37679</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -13611,8 +13635,8 @@
       <c r="D144" s="2">
         <v>0.76</v>
       </c>
-      <c r="E144" s="2">
-        <v>110.052717084977</v>
+      <c r="E144" s="8">
+        <v>37474</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -13628,8 +13652,8 @@
       <c r="D145" s="2">
         <v>0.72</v>
       </c>
-      <c r="E145" s="2">
-        <v>117.227545505786</v>
+      <c r="E145" s="9">
+        <v>39991</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -13645,8 +13669,8 @@
       <c r="D146" s="2">
         <v>0.85</v>
       </c>
-      <c r="E146" s="2">
-        <v>78.959583568184101</v>
+      <c r="E146" s="8">
+        <v>26818</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -13662,8 +13686,8 @@
       <c r="D147" s="2">
         <v>0.91</v>
       </c>
-      <c r="E147" s="2">
-        <v>92.221743310898205</v>
+      <c r="E147" s="9">
+        <v>30946</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -13679,8 +13703,8 @@
       <c r="D148" s="2">
         <v>0.77</v>
       </c>
-      <c r="E148" s="2">
-        <v>125.84794933854999</v>
+      <c r="E148" s="8">
+        <v>42684</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -13696,8 +13720,8 @@
       <c r="D149" s="2">
         <v>0.71</v>
       </c>
-      <c r="E149" s="2">
-        <v>118.036537250091</v>
+      <c r="E149" s="9">
+        <v>38987</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -13713,8 +13737,8 @@
       <c r="D150" s="2">
         <v>0.66</v>
       </c>
-      <c r="E150" s="2">
-        <v>130.78478830277501</v>
+      <c r="E150" s="8">
+        <v>44391</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -13730,8 +13754,8 @@
       <c r="D151" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E151" s="2">
-        <v>223.974669274891</v>
+      <c r="E151" s="9">
+        <v>82793</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -13747,8 +13771,8 @@
       <c r="D152" s="2">
         <v>0.51</v>
       </c>
-      <c r="E152" s="2">
-        <v>45.747820032492299</v>
+      <c r="E152" s="8">
+        <v>13359</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -13764,8 +13788,8 @@
       <c r="D153" s="2">
         <v>0.52</v>
       </c>
-      <c r="E153" s="2">
-        <v>85.424886442757199</v>
+      <c r="E153" s="9">
+        <v>26432</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -13781,8 +13805,8 @@
       <c r="D154" s="2">
         <v>0.6</v>
       </c>
-      <c r="E154" s="2">
-        <v>65.932827160903202</v>
+      <c r="E154" s="8">
+        <v>21581</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -13798,8 +13822,8 @@
       <c r="D155" s="2">
         <v>0.67</v>
       </c>
-      <c r="E155" s="2">
-        <v>79.997347568051396</v>
+      <c r="E155" s="9">
+        <v>26472</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -13815,8 +13839,8 @@
       <c r="D156" s="2">
         <v>0.6</v>
       </c>
-      <c r="E156" s="2">
-        <v>87.387686084678904</v>
+      <c r="E156" s="8">
+        <v>29000</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -13832,8 +13856,8 @@
       <c r="D157" s="2">
         <v>0.47</v>
       </c>
-      <c r="E157" s="2">
-        <v>77.630052053976996</v>
+      <c r="E157" s="9">
+        <v>26944</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -13849,8 +13873,8 @@
       <c r="D158" s="2">
         <v>0.43</v>
       </c>
-      <c r="E158" s="2">
-        <v>70.014256821723393</v>
+      <c r="E158" s="8">
+        <v>23303</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -13866,8 +13890,8 @@
       <c r="D159" s="2">
         <v>0.36</v>
       </c>
-      <c r="E159" s="2">
-        <v>78.873379529856393</v>
+      <c r="E159" s="9">
+        <v>26354</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -13883,8 +13907,8 @@
       <c r="D160" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E160" s="2">
-        <v>103.043665660953</v>
+      <c r="E160" s="8">
+        <v>34301</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -13900,8 +13924,8 @@
       <c r="D161" s="2">
         <v>0.23</v>
       </c>
-      <c r="E161" s="2">
-        <v>104.277046517025</v>
+      <c r="E161" s="9">
+        <v>34314</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -13917,8 +13941,8 @@
       <c r="D162" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E162" s="2">
-        <v>110.241702861311</v>
+      <c r="E162" s="8">
+        <v>36259</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -13934,8 +13958,8 @@
       <c r="D163" s="2">
         <v>-0.09</v>
       </c>
-      <c r="E163" s="2">
-        <v>109.807367129737</v>
+      <c r="E163" s="9">
+        <v>36397</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -13951,8 +13975,8 @@
       <c r="D164" s="2">
         <v>-0.12</v>
       </c>
-      <c r="E164" s="2">
-        <v>82.726036935114905</v>
+      <c r="E164" s="8">
+        <v>26178</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -13968,8 +13992,8 @@
       <c r="D165" s="2">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E165" s="2">
-        <v>101.100759258645</v>
+      <c r="E165" s="9">
+        <v>35315</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -13985,8 +14009,8 @@
       <c r="D166" s="2">
         <v>-0.23</v>
       </c>
-      <c r="E166" s="2">
-        <v>91.933291336494193</v>
+      <c r="E166" s="8">
+        <v>30458</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -14002,8 +14026,8 @@
       <c r="D167" s="2">
         <v>-0.16</v>
       </c>
-      <c r="E167" s="2">
-        <v>101.100759258645</v>
+      <c r="E167" s="9">
+        <v>33428</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -14019,8 +14043,8 @@
       <c r="D168" s="2">
         <v>0</v>
       </c>
-      <c r="E168" s="2">
-        <v>103.19949603793</v>
+      <c r="E168" s="8">
+        <v>34478</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -14036,8 +14060,8 @@
       <c r="D169" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E169" s="2">
-        <v>160.356088989092</v>
+      <c r="E169" s="9">
+        <v>59208</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -14053,8 +14077,8 @@
       <c r="D170" s="2">
         <v>0.11</v>
       </c>
-      <c r="E170" s="2">
-        <v>58.983455455721</v>
+      <c r="E170" s="8">
+        <v>18127</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -14070,8 +14094,8 @@
       <c r="D171" s="2">
         <v>-0.05</v>
       </c>
-      <c r="E171" s="2">
-        <v>74.563177613474394</v>
+      <c r="E171" s="9">
+        <v>23733</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -14087,8 +14111,8 @@
       <c r="D172" s="2">
         <v>-0.17</v>
       </c>
-      <c r="E172" s="2">
-        <v>94.608932064586696</v>
+      <c r="E172" s="8">
+        <v>30225</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -14104,8 +14128,8 @@
       <c r="D173" s="2">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E173" s="2">
-        <v>65.750472464440804</v>
+      <c r="E173" s="9">
+        <v>21313</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -14121,8 +14145,8 @@
       <c r="D174" s="2">
         <v>-0.06</v>
       </c>
-      <c r="E174" s="2">
-        <v>56.029309373031403</v>
+      <c r="E174" s="8">
+        <v>17987</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -14138,8 +14162,8 @@
       <c r="D175" s="2">
         <v>-0.01</v>
       </c>
-      <c r="E175" s="2">
-        <v>86.396339643911006</v>
+      <c r="E175" s="9">
+        <v>26987</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -14155,8 +14179,8 @@
       <c r="D176" s="2">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E176" s="2">
-        <v>78.923112628891602</v>
+      <c r="E176" s="8">
+        <v>24351</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -14172,8 +14196,8 @@
       <c r="D177" s="2">
         <v>-0.04</v>
       </c>
-      <c r="E177" s="2">
-        <v>88.011007592586395</v>
+      <c r="E177" s="9">
+        <v>28413</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -14189,8 +14213,8 @@
       <c r="D178" s="2">
         <v>-0.08</v>
       </c>
-      <c r="E178" s="2">
-        <v>98.773250223798897</v>
+      <c r="E178" s="8">
+        <v>32416</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -14206,8 +14230,8 @@
       <c r="D179" s="2">
         <v>-0.03</v>
       </c>
-      <c r="E179" s="2">
-        <v>96.273333112297394</v>
+      <c r="E179" s="9">
+        <v>31343</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -14223,8 +14247,8 @@
       <c r="D180" s="2">
         <v>0</v>
       </c>
-      <c r="E180" s="2">
-        <v>90.988362454825804</v>
+      <c r="E180" s="8">
+        <v>29716</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -14240,8 +14264,8 @@
       <c r="D181" s="2">
         <v>0.01</v>
       </c>
-      <c r="E181" s="2">
-        <v>115.957693710421</v>
+      <c r="E181" s="9">
+        <v>38637</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -14257,8 +14281,8 @@
       <c r="D182" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E182" s="2">
-        <v>71.204535658631997</v>
+      <c r="E182" s="8">
+        <v>22723</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -14274,8 +14298,8 @@
       <c r="D183" s="2">
         <v>0.25</v>
       </c>
-      <c r="E183" s="2">
-        <v>78.200324922913694</v>
+      <c r="E183" s="9">
+        <v>25646</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -14291,8 +14315,8 @@
       <c r="D184" s="2">
         <v>0.4</v>
       </c>
-      <c r="E184" s="2">
-        <v>161.54305228606501</v>
+      <c r="E184" s="8">
+        <v>56221</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -14308,8 +14332,8 @@
       <c r="D185" s="2">
         <v>0.37</v>
       </c>
-      <c r="E185" s="2">
-        <v>76.698385332051302</v>
+      <c r="E185" s="9">
+        <v>23699</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -14325,8 +14349,8 @@
       <c r="D186" s="2">
         <v>0.42</v>
       </c>
-      <c r="E186" s="2">
-        <v>85.252478366101897</v>
+      <c r="E186" s="8">
+        <v>27114</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -14342,8 +14366,8 @@
       <c r="D187" s="2">
         <v>0.36</v>
       </c>
-      <c r="E187" s="2">
-        <v>124.790292099068</v>
+      <c r="E187" s="9">
+        <v>39233</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -14359,8 +14383,8 @@
       <c r="D188" s="2">
         <v>0.18</v>
       </c>
-      <c r="E188" s="2">
-        <v>60.044428235138099</v>
+      <c r="E188" s="8">
+        <v>18326</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -14376,8 +14400,8 @@
       <c r="D189" s="2">
         <v>0.11</v>
       </c>
-      <c r="E189" s="2">
-        <v>69.377673154073094</v>
+      <c r="E189" s="9">
+        <v>22440</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -14393,8 +14417,8 @@
       <c r="D190" s="2">
         <v>0.27</v>
       </c>
-      <c r="E190" s="2">
-        <v>78.727495772686595</v>
+      <c r="E190" s="8">
+        <v>25607</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -14410,8 +14434,8 @@
       <c r="D191" s="2">
         <v>0.38</v>
       </c>
-      <c r="E191" s="2">
-        <v>69.347833294652006</v>
+      <c r="E191" s="9">
+        <v>22363</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -14427,8 +14451,8 @@
       <c r="D192" s="2">
         <v>0.27</v>
       </c>
-      <c r="E192" s="2">
-        <v>73.250223798945598</v>
+      <c r="E192" s="8">
+        <v>23477</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -14444,8 +14468,8 @@
       <c r="D193" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E193" s="2">
-        <v>93.680580882596701</v>
+      <c r="E193" s="9">
+        <v>30368</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -14461,8 +14485,8 @@
       <c r="D194" s="2">
         <v>0.36</v>
       </c>
-      <c r="E194" s="2">
-        <v>68.058088259673099</v>
+      <c r="E194" s="8">
+        <v>21967</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -14478,8 +14502,8 @@
       <c r="D195" s="2">
         <v>0.61</v>
       </c>
-      <c r="E195" s="2">
-        <v>72.666688770266205</v>
+      <c r="E195" s="9">
+        <v>23731</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -14495,8 +14519,8 @@
       <c r="D196" s="2">
         <v>0.82</v>
       </c>
-      <c r="E196" s="2">
-        <v>99.111435297238202</v>
+      <c r="E196" s="8">
+        <v>32151</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -14512,8 +14536,8 @@
       <c r="D197" s="2">
         <v>1.47</v>
       </c>
-      <c r="E197" s="2">
-        <v>76.423195517389999</v>
+      <c r="E197" s="9">
+        <v>24896</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -14529,8 +14553,8 @@
       <c r="D198" s="2">
         <v>1.77</v>
       </c>
-      <c r="E198" s="2">
-        <v>91.959815655979597</v>
+      <c r="E198" s="8">
+        <v>29396</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -14546,8 +14570,8 @@
       <c r="D199" s="2">
         <v>1.86</v>
       </c>
-      <c r="E199" s="2">
-        <v>90.759590199263997</v>
+      <c r="E199" s="9">
+        <v>28707</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -14563,8 +14587,8 @@
       <c r="D200" s="2">
         <v>1.53</v>
       </c>
-      <c r="E200" s="2">
-        <v>62.295679851463802</v>
+      <c r="E200" s="8">
+        <v>19353</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -14580,8 +14604,8 @@
       <c r="D201" s="2">
         <v>1.61</v>
       </c>
-      <c r="E201" s="2">
-        <v>71.260899837538503</v>
+      <c r="E201" s="9">
+        <v>23641</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -14597,8 +14621,8 @@
       <c r="D202" s="2">
         <v>2.08</v>
       </c>
-      <c r="E202" s="2">
-        <v>76.413248897583003</v>
+      <c r="E202" s="8">
+        <v>25320</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -14614,8 +14638,8 @@
       <c r="D203" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E203" s="2">
-        <v>76.986837306455399</v>
+      <c r="E203" s="9">
+        <v>24961</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -14631,8 +14655,8 @@
       <c r="D204" s="2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E204" s="2">
-        <v>87.182122608666802</v>
+      <c r="E204" s="8">
+        <v>28949</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -14648,8 +14672,8 @@
       <c r="D205" s="2">
         <v>1.97</v>
       </c>
-      <c r="E205" s="2">
-        <v>118.95825735221</v>
+      <c r="E205" s="9">
+        <v>39443</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
